--- a/api/ItemInfo.xlsx
+++ b/api/ItemInfo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Igor\Documents\GitHub\RunecapeCalculator\api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62532AF8-66EE-4CE3-A210-71EA08D55655}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B873D1D9-5216-46DB-9D53-3081AA4CD447}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1656" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1646" uniqueCount="388">
   <si>
     <t>Name</t>
   </si>
@@ -470,60 +470,18 @@
     <t>SideTargetMin</t>
   </si>
   <si>
-    <t>[1.88]</t>
-  </si>
-  <si>
-    <t>[0.376]</t>
-  </si>
-  <si>
     <t>[0]</t>
   </si>
   <si>
-    <t>[0.8]</t>
-  </si>
-  <si>
-    <t>[1.46]</t>
-  </si>
-  <si>
-    <t>[0.2; 0.2; 0.2; 0.2]</t>
-  </si>
-  <si>
-    <t>[0.94; 0.94; 0.94; 0.94]</t>
-  </si>
-  <si>
     <t>[1.2]</t>
   </si>
   <si>
-    <t>[0.3]</t>
-  </si>
-  <si>
     <t>[0.2]</t>
   </si>
   <si>
     <t>[1]</t>
   </si>
   <si>
-    <t>[0.2; 0.2; 0.2; 0.2; 0.2]</t>
-  </si>
-  <si>
-    <t>[0.376; 0.376; 0.376; 0.376; 0.376]</t>
-  </si>
-  <si>
-    <t>[0.36; 0.18; 0.18; 0.18; 0.18]</t>
-  </si>
-  <si>
-    <t>[0.288; 0.288; 0.288; 0.288; 0.288]</t>
-  </si>
-  <si>
-    <t>[1; 0.8; 0.6; 0.4; 0.2]</t>
-  </si>
-  <si>
-    <t>[0.33; 0.265; 0.2; 0.135; 0.07]</t>
-  </si>
-  <si>
-    <t>[3.5]</t>
-  </si>
-  <si>
     <t>[2.5]</t>
   </si>
   <si>
@@ -539,51 +497,6 @@
     <t>[2]</t>
   </si>
   <si>
-    <t>[1.57]</t>
-  </si>
-  <si>
-    <t>[0.314]</t>
-  </si>
-  <si>
-    <t>[0.4]</t>
-  </si>
-  <si>
-    <t>[0.188]</t>
-  </si>
-  <si>
-    <t>[1.25]</t>
-  </si>
-  <si>
-    <t>[0.25]</t>
-  </si>
-  <si>
-    <t>[0.15; 0.164; 0.178]</t>
-  </si>
-  <si>
-    <t>[0.376; 0.376; 0.376; 0.376]</t>
-  </si>
-  <si>
-    <t>[0.66; 0.84]</t>
-  </si>
-  <si>
-    <t>[0.288]</t>
-  </si>
-  <si>
-    <t>[2.19]</t>
-  </si>
-  <si>
-    <t>[0.438]</t>
-  </si>
-  <si>
-    <t>[1.8; 2; 2.2; 2.4]</t>
-  </si>
-  <si>
-    <t>[0.8; 0.9; 1; 1.1]</t>
-  </si>
-  <si>
-    <t>[0.438; 0.438; 0.438; 0.438]</t>
-  </si>
-  <si>
     <t>[0; 2; 4; 6]</t>
   </si>
   <si>
@@ -614,45 +527,18 @@
     <t>[0; 0]</t>
   </si>
   <si>
-    <t>[0.12; 0.12; 0.12]</t>
-  </si>
-  <si>
-    <t>[0.5; 0.5]</t>
-  </si>
-  <si>
-    <t>[0.2; 0.25; 0.3; 0.4]</t>
-  </si>
-  <si>
-    <t>[1; 1]</t>
-  </si>
-  <si>
-    <t>[0.33]</t>
-  </si>
-  <si>
-    <t>[0.94; 0.94; 0.94; 0.94; 0.94; 0.94; 0.94; 0.94]</t>
-  </si>
-  <si>
-    <t>[0.188; 0.188; 0.188; 0.188; 0.188; 0.188; 0.188; 0.188; 0.188]</t>
-  </si>
-  <si>
     <t>Greater Concentrated Blast</t>
   </si>
   <si>
     <t>[0; 1; 2]</t>
   </si>
   <si>
-    <t>[0.158; 0.178; 0.198]</t>
-  </si>
-  <si>
     <t>Magma Tempest</t>
   </si>
   <si>
     <t>[2; 4; 6; 8; 10; 12; 14; 16]</t>
   </si>
   <si>
-    <t>[0.05; 0.05; 0.05; 0.05; 0.05; 0.05; 0.05; 0.05]</t>
-  </si>
-  <si>
     <t>MaxTargets</t>
   </si>
   <si>
@@ -701,12 +587,6 @@
     <t>[0.9; 0.075; 0.075; 0.075; 0.375]</t>
   </si>
   <si>
-    <t>[0.376; 0.626; 0.626; 0.626; 0.626; 0.626]</t>
-  </si>
-  <si>
-    <t>[0.314; 0.02707; 0.01933; 0.00773; 0.00387]</t>
-  </si>
-  <si>
     <t>[0; 1; 2; 3]</t>
   </si>
   <si>
@@ -1175,15 +1055,9 @@
     <t>[0; 1; 4; 7; 10; 13]</t>
   </si>
   <si>
-    <t>[1.15; 0.0336; 0.024; 0.0096; 0.0048]</t>
-  </si>
-  <si>
     <t>Greater Death's Swiftness</t>
   </si>
   <si>
-    <t>Tuska's Wrath (Task)</t>
-  </si>
-  <si>
     <t>Revenge</t>
   </si>
   <si>
@@ -1209,6 +1083,123 @@
   </si>
   <si>
     <t>Natural Instinct</t>
+  </si>
+  <si>
+    <t>[1.1; 1.1; 1.1; 1.1]</t>
+  </si>
+  <si>
+    <t>[1.25; 1.25; 1.25; 1.25]</t>
+  </si>
+  <si>
+    <t>[0.65]</t>
+  </si>
+  <si>
+    <t>[1; 0.5; 0.5; 0.5; 0.5]</t>
+  </si>
+  <si>
+    <t>[0.45; 0.5; 0.55]</t>
+  </si>
+  <si>
+    <t>[0.6; 0.48; 0.36; 0.24; 0.12]</t>
+  </si>
+  <si>
+    <t>[1.15; 0.7; 0.7; 0.7; 0.7; 0.7]</t>
+  </si>
+  <si>
+    <t>[2.25]</t>
+  </si>
+  <si>
+    <t>[0.6; 0.6; 0.6; 0.6]</t>
+  </si>
+  <si>
+    <t>[1.45; 1.55; 1.65; 1.75]</t>
+  </si>
+  <si>
+    <t>[0.45; 0.51; 0.57]</t>
+  </si>
+  <si>
+    <t>[1.15; 0.046; 0.0345; 0.01725; 0.0115; 0.00575]</t>
+  </si>
+  <si>
+    <t>[0.95; 0.038; 0.0285; 0.01425; 0.0095; 0.00475]</t>
+  </si>
+  <si>
+    <t>[0.1; 0.1; 0.1; 0.1; 0.1; 0.1; 0.1; 0.1; 0.1; 0.1; 0.1; 0.1; 0.1; 0.1; 0.1; 0.1; 0.1; 0.1; 0.1; 0.1; 0.1]</t>
+  </si>
+  <si>
+    <t>[1; 1; 1; 1]</t>
+  </si>
+  <si>
+    <t>[1.2; 1.35]</t>
+  </si>
+  <si>
+    <t>[2.7]</t>
+  </si>
+  <si>
+    <t>[0.21; 0.21; 0.21; 0.21; 0.21]</t>
+  </si>
+  <si>
+    <t>[0.45; 0.45; 0.45]</t>
+  </si>
+  <si>
+    <t>[0.85]</t>
+  </si>
+  <si>
+    <t>[1.45]</t>
+  </si>
+  <si>
+    <t>[0.25; 0.25; 0.25; 0.25; 0.25; 0.25; 0.25; 0.25]</t>
+  </si>
+  <si>
+    <t>[1; 0.65; 0.65; 0.65; 0.65; 0.65]</t>
+  </si>
+  <si>
+    <t>[0.45; 0.45]</t>
+  </si>
+  <si>
+    <t>[0.715; 0.715]</t>
+  </si>
+  <si>
+    <t>[0.585; 0.585]</t>
+  </si>
+  <si>
+    <t>[0.75; 0.75; 0.75; 0.75; 0.75; 0.75; 0.75; 0.75]</t>
+  </si>
+  <si>
+    <t>[0.65; 0.65; 0.65; 0.65; 0.65; 0.65; 0.65; 0.65]</t>
+  </si>
+  <si>
+    <t>[3.1]</t>
+  </si>
+  <si>
+    <t>[0.3; 0.3; 0.3; 0.3; 0.3]</t>
+  </si>
+  <si>
+    <t>[1.61]</t>
+  </si>
+  <si>
+    <t>[1.33]</t>
+  </si>
+  <si>
+    <t>[0.6; 0.7; 0.8; 0.9]</t>
+  </si>
+  <si>
+    <t>[1.1; 1.5]</t>
+  </si>
+  <si>
+    <t>[1.5; 1.7; 1.9; 2.1]</t>
+  </si>
+  <si>
+    <t>[1.3; 1.5; 1.7; 1.9]</t>
+  </si>
+  <si>
+    <t>[1.25; 1.25]</t>
+  </si>
+  <si>
+    <t>[1.17]</t>
+  </si>
+  <si>
+    <t>[1.43]</t>
   </si>
 </sst>
 </file>
@@ -5361,10 +5352,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{5E4F383D-87A6-4B7F-AD98-603A80955DE6}" name="Table11" displayName="Table11" ref="A1:AJ112" totalsRowShown="0" headerRowDxfId="167" dataDxfId="166">
-  <autoFilter ref="A1:AJ112" xr:uid="{5E4F383D-87A6-4B7F-AD98-603A80955DE6}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AJ112">
-    <sortCondition ref="A1:A112"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{5E4F383D-87A6-4B7F-AD98-603A80955DE6}" name="Table11" displayName="Table11" ref="A1:AJ111" totalsRowShown="0" headerRowDxfId="167" dataDxfId="166">
+  <autoFilter ref="A1:AJ111" xr:uid="{5E4F383D-87A6-4B7F-AD98-603A80955DE6}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AJ111">
+    <sortCondition ref="A1:A111"/>
   </sortState>
   <tableColumns count="36">
     <tableColumn id="1" xr3:uid="{3FDE3124-408F-41C3-BCE2-36821A5C2F9D}" name="Name" dataDxfId="165"/>
@@ -5898,12 +5889,12 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AO122"/>
+  <dimension ref="A1:AO121"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A46" sqref="A46"/>
-      <selection pane="topRight" activeCell="M34" sqref="M34"/>
+      <selection pane="topRight" activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5926,12 +5917,12 @@
     <col min="16" max="16" width="13.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="48.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="19" width="62.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="36.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="36.140625" style="1" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="8.5703125" style="1" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="14.28515625" style="1" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="11.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="15.85546875" style="1" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="17.5703125" style="1" hidden="1" customWidth="1"/>
     <col min="26" max="26" width="20.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="17.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="28" max="29" width="15.140625" style="1" bestFit="1" customWidth="1"/>
@@ -6007,7 +5998,7 @@
         <v>18</v>
       </c>
       <c r="T1" s="4" t="s">
-        <v>330</v>
+        <v>290</v>
       </c>
       <c r="U1" s="4" t="s">
         <v>19</v>
@@ -6025,16 +6016,16 @@
         <v>141</v>
       </c>
       <c r="Z1" s="4" t="s">
-        <v>338</v>
+        <v>298</v>
       </c>
       <c r="AA1" s="4" t="s">
-        <v>339</v>
+        <v>299</v>
       </c>
       <c r="AB1" s="11" t="s">
-        <v>259</v>
+        <v>219</v>
       </c>
       <c r="AC1" s="11" t="s">
-        <v>260</v>
+        <v>220</v>
       </c>
       <c r="AD1" s="4" t="s">
         <v>24</v>
@@ -6046,16 +6037,16 @@
         <v>26</v>
       </c>
       <c r="AG1" s="4" t="s">
-        <v>261</v>
+        <v>221</v>
       </c>
       <c r="AH1" s="4" t="s">
         <v>28</v>
       </c>
       <c r="AI1" s="4" t="s">
-        <v>205</v>
+        <v>167</v>
       </c>
       <c r="AJ1" s="4" t="s">
-        <v>211</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:36" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
@@ -6108,16 +6099,16 @@
         <v>0</v>
       </c>
       <c r="Q2" s="16" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="R2" s="15" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="S2" s="15" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="T2" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="U2" s="4" t="b">
         <v>0</v>
@@ -6135,10 +6126,10 @@
         <v>0</v>
       </c>
       <c r="Z2" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AA2" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AB2" s="4">
         <v>0</v>
@@ -6218,16 +6209,16 @@
         <v>1</v>
       </c>
       <c r="Q3" s="16" t="s">
-        <v>182</v>
+        <v>153</v>
       </c>
       <c r="R3" s="16" t="s">
-        <v>359</v>
+        <v>319</v>
       </c>
       <c r="S3" s="16" t="s">
-        <v>174</v>
+        <v>349</v>
       </c>
       <c r="T3" s="4" t="s">
-        <v>331</v>
+        <v>291</v>
       </c>
       <c r="U3" s="4" t="b">
         <v>0</v>
@@ -6245,10 +6236,10 @@
         <v>0</v>
       </c>
       <c r="Z3" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AA3" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AB3" s="4">
         <v>6</v>
@@ -6328,16 +6319,16 @@
         <v>1</v>
       </c>
       <c r="Q4" s="16" t="s">
-        <v>182</v>
+        <v>153</v>
       </c>
       <c r="R4" s="16" t="s">
-        <v>357</v>
+        <v>317</v>
       </c>
       <c r="S4" s="16" t="s">
-        <v>181</v>
+        <v>350</v>
       </c>
       <c r="T4" s="4" t="s">
-        <v>331</v>
+        <v>291</v>
       </c>
       <c r="U4" s="4" t="b">
         <v>0</v>
@@ -6355,10 +6346,10 @@
         <v>0</v>
       </c>
       <c r="Z4" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AA4" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AB4" s="4">
         <v>0</v>
@@ -6438,16 +6429,16 @@
         <v>0</v>
       </c>
       <c r="Q5" s="15" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="R5" s="16" t="s">
-        <v>342</v>
+        <v>302</v>
       </c>
       <c r="S5" s="16" t="s">
-        <v>153</v>
+        <v>351</v>
       </c>
       <c r="T5" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="U5" s="4" t="b">
         <v>0</v>
@@ -6465,10 +6456,10 @@
         <v>0</v>
       </c>
       <c r="Z5" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AA5" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AB5" s="4">
         <v>2</v>
@@ -6548,16 +6539,16 @@
         <v>0</v>
       </c>
       <c r="Q6" s="15" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="R6" s="15" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="S6" s="15" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="T6" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="U6" s="4" t="b">
         <v>0</v>
@@ -6575,10 +6566,10 @@
         <v>0</v>
       </c>
       <c r="Z6" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AA6" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AB6" s="11">
         <v>0</v>
@@ -6658,16 +6649,16 @@
         <v>0</v>
       </c>
       <c r="Q7" s="15" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="R7" s="16" t="s">
-        <v>346</v>
+        <v>306</v>
       </c>
       <c r="S7" s="16" t="s">
-        <v>172</v>
+        <v>302</v>
       </c>
       <c r="T7" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="U7" s="4" t="b">
         <v>0</v>
@@ -6685,10 +6676,10 @@
         <v>0</v>
       </c>
       <c r="Z7" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AA7" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AB7" s="11">
         <v>0</v>
@@ -6720,7 +6711,7 @@
     </row>
     <row r="8" spans="1:36" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="16" t="s">
-        <v>389</v>
+        <v>347</v>
       </c>
       <c r="B8" s="15" t="b">
         <v>1</v>
@@ -6768,16 +6759,16 @@
         <v>0</v>
       </c>
       <c r="Q8" s="16" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="R8" s="15" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="S8" s="15" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="T8" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="U8" s="4" t="b">
         <v>0</v>
@@ -6795,10 +6786,10 @@
         <v>0</v>
       </c>
       <c r="Z8" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AA8" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AB8" s="4">
         <v>0</v>
@@ -6878,16 +6869,16 @@
         <v>0</v>
       </c>
       <c r="Q9" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="R9" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="S9" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="R9" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="S9" s="17" t="s">
-        <v>153</v>
-      </c>
       <c r="T9" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="U9" s="4" t="b">
         <v>0</v>
@@ -6905,10 +6896,10 @@
         <v>0</v>
       </c>
       <c r="Z9" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AA9" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AB9" s="4">
         <v>0</v>
@@ -6988,16 +6979,16 @@
         <v>0</v>
       </c>
       <c r="Q10" s="15" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="R10" s="15" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="S10" s="15" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="T10" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="U10" s="4" t="b">
         <v>0</v>
@@ -7015,10 +7006,10 @@
         <v>0</v>
       </c>
       <c r="Z10" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AA10" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AB10" s="4">
         <v>0</v>
@@ -7098,16 +7089,16 @@
         <v>0</v>
       </c>
       <c r="Q11" s="15" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="R11" s="16" t="s">
-        <v>342</v>
+        <v>302</v>
       </c>
       <c r="S11" s="16" t="s">
-        <v>153</v>
+        <v>351</v>
       </c>
       <c r="T11" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="U11" s="4" t="b">
         <v>0</v>
@@ -7125,10 +7116,10 @@
         <v>0</v>
       </c>
       <c r="Z11" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AA11" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AB11" s="4">
         <v>2</v>
@@ -7208,16 +7199,16 @@
         <v>0</v>
       </c>
       <c r="Q12" s="15" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="R12" s="16" t="s">
-        <v>346</v>
+        <v>306</v>
       </c>
       <c r="S12" s="16" t="s">
-        <v>172</v>
+        <v>302</v>
       </c>
       <c r="T12" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="U12" s="4" t="b">
         <v>0</v>
@@ -7235,10 +7226,10 @@
         <v>0</v>
       </c>
       <c r="Z12" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AA12" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AB12" s="11">
         <v>0</v>
@@ -7318,16 +7309,16 @@
         <v>0</v>
       </c>
       <c r="Q13" s="16" t="s">
-        <v>183</v>
+        <v>154</v>
       </c>
       <c r="R13" s="16" t="s">
+        <v>312</v>
+      </c>
+      <c r="S13" s="16" t="s">
         <v>352</v>
       </c>
-      <c r="S13" s="16" t="s">
-        <v>157</v>
-      </c>
       <c r="T13" s="4" t="s">
-        <v>334</v>
+        <v>294</v>
       </c>
       <c r="U13" s="4" t="b">
         <v>1</v>
@@ -7345,10 +7336,10 @@
         <v>0</v>
       </c>
       <c r="Z13" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AA13" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AB13" s="11">
         <v>0</v>
@@ -7428,16 +7419,16 @@
         <v>0</v>
       </c>
       <c r="Q14" s="15" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="R14" s="16" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="S14" s="16" t="s">
-        <v>178</v>
+        <v>309</v>
       </c>
       <c r="T14" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="U14" s="4" t="b">
         <v>0</v>
@@ -7455,10 +7446,10 @@
         <v>0</v>
       </c>
       <c r="Z14" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AA14" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AB14" s="4">
         <v>0</v>
@@ -7538,16 +7529,16 @@
         <v>0</v>
       </c>
       <c r="Q15" s="15" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="R15" s="16" t="s">
-        <v>342</v>
+        <v>302</v>
       </c>
       <c r="S15" s="16" t="s">
-        <v>153</v>
+        <v>351</v>
       </c>
       <c r="T15" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="U15" s="4" t="b">
         <v>0</v>
@@ -7565,10 +7556,10 @@
         <v>0</v>
       </c>
       <c r="Z15" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AA15" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AB15" s="4">
         <v>0</v>
@@ -7648,16 +7639,16 @@
         <v>0</v>
       </c>
       <c r="Q16" s="15" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="R16" s="16" t="s">
-        <v>349</v>
+        <v>309</v>
       </c>
       <c r="S16" s="16" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="T16" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="U16" s="4" t="b">
         <v>0</v>
@@ -7675,10 +7666,10 @@
         <v>0</v>
       </c>
       <c r="Z16" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AA16" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AB16" s="4">
         <v>0</v>
@@ -7758,16 +7749,16 @@
         <v>0</v>
       </c>
       <c r="Q17" s="16" t="s">
-        <v>183</v>
+        <v>154</v>
       </c>
       <c r="R17" s="16" t="s">
-        <v>354</v>
+        <v>314</v>
       </c>
       <c r="S17" s="15" t="s">
-        <v>155</v>
+        <v>313</v>
       </c>
       <c r="T17" s="4" t="s">
-        <v>334</v>
+        <v>294</v>
       </c>
       <c r="U17" s="4" t="b">
         <v>1</v>
@@ -7785,10 +7776,10 @@
         <v>0</v>
       </c>
       <c r="Z17" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AA17" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AB17" s="4">
         <v>0</v>
@@ -7868,16 +7859,16 @@
         <v>1</v>
       </c>
       <c r="Q18" s="16" t="s">
-        <v>190</v>
+        <v>161</v>
       </c>
       <c r="R18" s="16" t="s">
-        <v>364</v>
+        <v>324</v>
       </c>
       <c r="S18" s="16" t="s">
-        <v>173</v>
+        <v>353</v>
       </c>
       <c r="T18" s="4" t="s">
-        <v>332</v>
+        <v>292</v>
       </c>
       <c r="U18" s="4" t="b">
         <v>0</v>
@@ -7895,10 +7886,10 @@
         <v>0</v>
       </c>
       <c r="Z18" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AA18" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AB18" s="4">
         <v>0</v>
@@ -7978,16 +7969,16 @@
         <v>0</v>
       </c>
       <c r="Q19" s="16" t="s">
-        <v>183</v>
+        <v>154</v>
       </c>
       <c r="R19" s="16" t="s">
-        <v>368</v>
+        <v>328</v>
       </c>
       <c r="S19" s="16" t="s">
-        <v>160</v>
+        <v>354</v>
       </c>
       <c r="T19" s="4" t="s">
-        <v>334</v>
+        <v>294</v>
       </c>
       <c r="U19" s="4" t="b">
         <v>1</v>
@@ -8005,10 +7996,10 @@
         <v>0</v>
       </c>
       <c r="Z19" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AA19" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AB19" s="4">
         <v>0</v>
@@ -8088,16 +8079,16 @@
         <v>0</v>
       </c>
       <c r="Q20" s="16" t="s">
-        <v>183</v>
+        <v>154</v>
       </c>
       <c r="R20" s="16" t="s">
-        <v>159</v>
+        <v>328</v>
       </c>
       <c r="S20" s="16" t="s">
-        <v>160</v>
+        <v>354</v>
       </c>
       <c r="T20" s="4" t="s">
-        <v>334</v>
+        <v>294</v>
       </c>
       <c r="U20" s="4" t="b">
         <v>1</v>
@@ -8115,10 +8106,10 @@
         <v>0</v>
       </c>
       <c r="Z20" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AA20" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AB20" s="4">
         <v>0</v>
@@ -8198,16 +8189,16 @@
         <v>0</v>
       </c>
       <c r="Q21" s="15" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="R21" s="16" t="s">
-        <v>341</v>
+        <v>301</v>
       </c>
       <c r="S21" s="16" t="s">
-        <v>168</v>
+        <v>306</v>
       </c>
       <c r="T21" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="U21" s="4" t="b">
         <v>0</v>
@@ -8225,10 +8216,10 @@
         <v>0</v>
       </c>
       <c r="Z21" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AA21" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AB21" s="4">
         <v>0</v>
@@ -8308,16 +8299,16 @@
         <v>0</v>
       </c>
       <c r="Q22" s="16" t="s">
-        <v>184</v>
+        <v>155</v>
       </c>
       <c r="R22" s="16" t="s">
-        <v>375</v>
+        <v>335</v>
       </c>
       <c r="S22" s="16" t="s">
-        <v>221</v>
+        <v>355</v>
       </c>
       <c r="T22" s="4" t="s">
-        <v>336</v>
+        <v>296</v>
       </c>
       <c r="U22" s="4" t="b">
         <v>1</v>
@@ -8335,10 +8326,10 @@
         <v>0</v>
       </c>
       <c r="Z22" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AA22" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AB22" s="4">
         <v>0</v>
@@ -8418,16 +8409,16 @@
         <v>0</v>
       </c>
       <c r="Q23" s="16" t="s">
-        <v>185</v>
+        <v>156</v>
       </c>
       <c r="R23" s="16" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="S23" s="16" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="T23" s="4" t="s">
-        <v>335</v>
+        <v>295</v>
       </c>
       <c r="U23" s="4" t="b">
         <v>1</v>
@@ -8445,10 +8436,10 @@
         <v>0</v>
       </c>
       <c r="Z23" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AA23" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AB23" s="4">
         <v>0</v>
@@ -8528,16 +8519,16 @@
         <v>0</v>
       </c>
       <c r="Q24" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="R24" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="S24" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="R24" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="S24" s="17" t="s">
-        <v>153</v>
-      </c>
       <c r="T24" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="U24" s="4" t="b">
         <v>0</v>
@@ -8555,10 +8546,10 @@
         <v>0</v>
       </c>
       <c r="Z24" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AA24" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AB24" s="4">
         <v>0</v>
@@ -8638,16 +8629,16 @@
         <v>0</v>
       </c>
       <c r="Q25" s="15" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="R25" s="16" t="s">
-        <v>349</v>
+        <v>309</v>
       </c>
       <c r="S25" s="16" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="T25" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="U25" s="4" t="b">
         <v>0</v>
@@ -8665,10 +8656,10 @@
         <v>0</v>
       </c>
       <c r="Z25" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AA25" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AB25" s="4">
         <v>0</v>
@@ -8748,16 +8739,16 @@
         <v>0</v>
       </c>
       <c r="Q26" s="15" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="R26" s="16" t="s">
-        <v>345</v>
+        <v>305</v>
       </c>
       <c r="S26" s="16" t="s">
-        <v>169</v>
+        <v>145</v>
       </c>
       <c r="T26" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="U26" s="4" t="b">
         <v>0</v>
@@ -8775,10 +8766,10 @@
         <v>0</v>
       </c>
       <c r="Z26" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AA26" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AB26" s="4">
         <v>6</v>
@@ -8858,16 +8849,16 @@
         <v>0</v>
       </c>
       <c r="Q27" s="15" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="R27" s="16" t="s">
-        <v>154</v>
+        <v>302</v>
       </c>
       <c r="S27" s="16" t="s">
-        <v>153</v>
+        <v>351</v>
       </c>
       <c r="T27" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="U27" s="4" t="b">
         <v>0</v>
@@ -8885,10 +8876,10 @@
         <v>0</v>
       </c>
       <c r="Z27" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AA27" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AB27" s="4">
         <v>2</v>
@@ -8968,16 +8959,16 @@
         <v>1</v>
       </c>
       <c r="Q28" s="16" t="s">
-        <v>182</v>
+        <v>153</v>
       </c>
       <c r="R28" s="16" t="s">
-        <v>356</v>
+        <v>316</v>
       </c>
       <c r="S28" s="16" t="s">
-        <v>174</v>
+        <v>308</v>
       </c>
       <c r="T28" s="4" t="s">
-        <v>331</v>
+        <v>291</v>
       </c>
       <c r="U28" s="4" t="b">
         <v>0</v>
@@ -8995,10 +8986,10 @@
         <v>0</v>
       </c>
       <c r="Z28" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AA28" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AB28" s="4">
         <v>6</v>
@@ -9078,16 +9069,16 @@
         <v>1</v>
       </c>
       <c r="Q29" s="16" t="s">
-        <v>188</v>
+        <v>159</v>
       </c>
       <c r="R29" s="16" t="s">
-        <v>226</v>
+        <v>186</v>
       </c>
       <c r="S29" s="16" t="s">
-        <v>154</v>
+        <v>356</v>
       </c>
       <c r="T29" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="U29" s="4" t="b">
         <v>0</v>
@@ -9105,10 +9096,10 @@
         <v>0</v>
       </c>
       <c r="Z29" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AA29" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AB29" s="4">
         <v>0</v>
@@ -9188,16 +9179,16 @@
         <v>0</v>
       </c>
       <c r="Q30" s="16" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="R30" s="15" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="S30" s="15" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="T30" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="U30" s="4" t="b">
         <v>0</v>
@@ -9215,10 +9206,10 @@
         <v>0</v>
       </c>
       <c r="Z30" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AA30" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AB30" s="4">
         <v>0</v>
@@ -9298,16 +9289,16 @@
         <v>0</v>
       </c>
       <c r="Q31" s="16" t="s">
-        <v>183</v>
+        <v>154</v>
       </c>
       <c r="R31" s="16" t="s">
-        <v>354</v>
+        <v>314</v>
       </c>
       <c r="S31" s="15" t="s">
-        <v>155</v>
+        <v>313</v>
       </c>
       <c r="T31" s="4" t="s">
-        <v>334</v>
+        <v>294</v>
       </c>
       <c r="U31" s="4" t="b">
         <v>1</v>
@@ -9325,10 +9316,10 @@
         <v>0</v>
       </c>
       <c r="Z31" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AA31" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AB31" s="4">
         <v>0</v>
@@ -9360,7 +9351,7 @@
     </row>
     <row r="32" spans="1:36" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32" s="16" t="s">
-        <v>386</v>
+        <v>344</v>
       </c>
       <c r="B32" s="15" t="b">
         <v>1</v>
@@ -9408,16 +9399,16 @@
         <v>0</v>
       </c>
       <c r="Q32" s="16" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="R32" s="15" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="S32" s="15" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="T32" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="U32" s="4" t="b">
         <v>0</v>
@@ -9435,10 +9426,10 @@
         <v>0</v>
       </c>
       <c r="Z32" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AA32" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AB32" s="4">
         <v>0</v>
@@ -9518,16 +9509,16 @@
         <v>0</v>
       </c>
       <c r="Q33" s="15" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="R33" s="16" t="s">
-        <v>349</v>
+        <v>309</v>
       </c>
       <c r="S33" s="16" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="T33" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="U33" s="4" t="b">
         <v>0</v>
@@ -9545,10 +9536,10 @@
         <v>0</v>
       </c>
       <c r="Z33" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AA33" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AB33" s="4">
         <v>0</v>
@@ -9628,16 +9619,16 @@
         <v>0</v>
       </c>
       <c r="Q34" s="15" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="R34" s="15" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="S34" s="15" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="T34" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="U34" s="4" t="b">
         <v>0</v>
@@ -9655,10 +9646,10 @@
         <v>0</v>
       </c>
       <c r="Z34" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AA34" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AB34" s="4">
         <v>0</v>
@@ -9738,16 +9729,16 @@
         <v>1</v>
       </c>
       <c r="Q35" s="16" t="s">
-        <v>182</v>
+        <v>153</v>
       </c>
       <c r="R35" s="16" t="s">
-        <v>347</v>
+        <v>307</v>
       </c>
       <c r="S35" s="15" t="s">
-        <v>149</v>
+        <v>357</v>
       </c>
       <c r="T35" s="4" t="s">
-        <v>331</v>
+        <v>291</v>
       </c>
       <c r="U35" s="4" t="b">
         <v>0</v>
@@ -9765,10 +9756,10 @@
         <v>0</v>
       </c>
       <c r="Z35" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AA35" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AB35" s="11">
         <v>0</v>
@@ -9848,16 +9839,16 @@
         <v>0</v>
       </c>
       <c r="Q36" s="15" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="R36" s="16" t="s">
-        <v>345</v>
+        <v>305</v>
       </c>
       <c r="S36" s="16" t="s">
-        <v>169</v>
+        <v>145</v>
       </c>
       <c r="T36" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="U36" s="4" t="b">
         <v>0</v>
@@ -9875,10 +9866,10 @@
         <v>0</v>
       </c>
       <c r="Z36" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AA36" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AB36" s="4">
         <v>6</v>
@@ -9958,16 +9949,16 @@
         <v>0</v>
       </c>
       <c r="Q37" s="16" t="s">
-        <v>183</v>
+        <v>154</v>
       </c>
       <c r="R37" s="16" t="s">
-        <v>156</v>
+        <v>314</v>
       </c>
       <c r="S37" s="15" t="s">
-        <v>155</v>
+        <v>313</v>
       </c>
       <c r="T37" s="4" t="s">
-        <v>334</v>
+        <v>294</v>
       </c>
       <c r="U37" s="4" t="b">
         <v>1</v>
@@ -9985,10 +9976,10 @@
         <v>0</v>
       </c>
       <c r="Z37" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AA37" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AB37" s="4">
         <v>0</v>
@@ -10068,16 +10059,16 @@
         <v>0</v>
       </c>
       <c r="Q38" s="16" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="R38" s="15" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="S38" s="15" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="T38" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="U38" s="4" t="b">
         <v>0</v>
@@ -10095,10 +10086,10 @@
         <v>0</v>
       </c>
       <c r="Z38" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AA38" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AB38" s="4">
         <v>0</v>
@@ -10178,16 +10169,16 @@
         <v>1</v>
       </c>
       <c r="Q39" s="16" t="s">
-        <v>182</v>
+        <v>153</v>
       </c>
       <c r="R39" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="S39" s="16" t="s">
         <v>358</v>
       </c>
-      <c r="S39" s="16" t="s">
-        <v>180</v>
-      </c>
       <c r="T39" s="4" t="s">
-        <v>331</v>
+        <v>291</v>
       </c>
       <c r="U39" s="4" t="b">
         <v>0</v>
@@ -10205,10 +10196,10 @@
         <v>0</v>
       </c>
       <c r="Z39" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AA39" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AB39" s="4">
         <v>0</v>
@@ -10288,16 +10279,16 @@
         <v>0</v>
       </c>
       <c r="Q40" s="16" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="R40" s="16" t="s">
-        <v>349</v>
+        <v>309</v>
       </c>
       <c r="S40" s="16" t="s">
-        <v>173</v>
+        <v>151</v>
       </c>
       <c r="T40" s="4" t="s">
-        <v>332</v>
+        <v>292</v>
       </c>
       <c r="U40" s="4" t="b">
         <v>0</v>
@@ -10315,10 +10306,10 @@
         <v>0</v>
       </c>
       <c r="Z40" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AA40" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AB40" s="4">
         <v>0</v>
@@ -10398,16 +10389,16 @@
         <v>0</v>
       </c>
       <c r="Q41" s="15" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="R41" s="15" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="S41" s="15" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="T41" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="U41" s="4" t="b">
         <v>0</v>
@@ -10425,10 +10416,10 @@
         <v>0</v>
       </c>
       <c r="Z41" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AA41" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AB41" s="4">
         <v>0</v>
@@ -10508,16 +10499,16 @@
         <v>0</v>
       </c>
       <c r="Q42" s="15" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="R42" s="16" t="s">
-        <v>346</v>
+        <v>306</v>
       </c>
       <c r="S42" s="16" t="s">
-        <v>172</v>
+        <v>302</v>
       </c>
       <c r="T42" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="U42" s="4" t="b">
         <v>0</v>
@@ -10535,10 +10526,10 @@
         <v>0</v>
       </c>
       <c r="Z42" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AA42" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AB42" s="11">
         <v>0</v>
@@ -10618,16 +10609,16 @@
         <v>0</v>
       </c>
       <c r="Q43" s="15" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="R43" s="16" t="s">
-        <v>342</v>
+        <v>302</v>
       </c>
       <c r="S43" s="16" t="s">
-        <v>153</v>
+        <v>351</v>
       </c>
       <c r="T43" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="U43" s="4" t="b">
         <v>0</v>
@@ -10645,10 +10636,10 @@
         <v>0</v>
       </c>
       <c r="Z43" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AA43" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AB43" s="4">
         <v>0</v>
@@ -10680,7 +10671,7 @@
     </row>
     <row r="44" spans="1:36" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A44" s="16" t="s">
-        <v>199</v>
+        <v>163</v>
       </c>
       <c r="B44" s="15" t="b">
         <v>1</v>
@@ -10728,16 +10719,16 @@
         <v>1</v>
       </c>
       <c r="Q44" s="16" t="s">
-        <v>200</v>
+        <v>164</v>
       </c>
       <c r="R44" s="16" t="s">
-        <v>365</v>
+        <v>325</v>
       </c>
       <c r="S44" s="16" t="s">
-        <v>201</v>
+        <v>359</v>
       </c>
       <c r="T44" s="4" t="s">
-        <v>332</v>
+        <v>292</v>
       </c>
       <c r="U44" s="4" t="b">
         <v>0</v>
@@ -10755,10 +10746,10 @@
         <v>0</v>
       </c>
       <c r="Z44" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AA44" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AB44" s="4">
         <v>0</v>
@@ -10838,16 +10829,16 @@
         <v>0</v>
       </c>
       <c r="Q45" s="16" t="s">
-        <v>378</v>
+        <v>338</v>
       </c>
       <c r="R45" s="16" t="s">
-        <v>379</v>
+        <v>360</v>
       </c>
       <c r="S45" s="16" t="s">
-        <v>222</v>
+        <v>361</v>
       </c>
       <c r="T45" s="4" t="s">
-        <v>334</v>
+        <v>294</v>
       </c>
       <c r="U45" s="4" t="b">
         <v>0</v>
@@ -10865,10 +10856,10 @@
         <v>0</v>
       </c>
       <c r="Z45" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AA45" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AB45" s="4">
         <v>0</v>
@@ -10900,7 +10891,7 @@
     </row>
     <row r="46" spans="1:36" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A46" s="16" t="s">
-        <v>380</v>
+        <v>339</v>
       </c>
       <c r="B46" s="15" t="b">
         <v>1</v>
@@ -10948,16 +10939,16 @@
         <v>0</v>
       </c>
       <c r="Q46" s="16" t="s">
-        <v>371</v>
+        <v>331</v>
       </c>
       <c r="R46" s="16" t="s">
-        <v>163</v>
+        <v>332</v>
       </c>
       <c r="S46" s="16" t="s">
-        <v>164</v>
+        <v>362</v>
       </c>
       <c r="T46" s="4" t="s">
-        <v>335</v>
+        <v>295</v>
       </c>
       <c r="U46" s="4" t="b">
         <v>1</v>
@@ -10975,10 +10966,10 @@
         <v>0</v>
       </c>
       <c r="Z46" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AA46" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AB46" s="4">
         <v>0</v>
@@ -11058,16 +11049,16 @@
         <v>1</v>
       </c>
       <c r="Q47" s="16" t="s">
-        <v>182</v>
+        <v>153</v>
       </c>
       <c r="R47" s="16" t="s">
-        <v>348</v>
+        <v>308</v>
       </c>
       <c r="S47" s="15" t="s">
-        <v>149</v>
+        <v>363</v>
       </c>
       <c r="T47" s="4" t="s">
-        <v>331</v>
+        <v>291</v>
       </c>
       <c r="U47" s="4" t="b">
         <v>0</v>
@@ -11085,10 +11076,10 @@
         <v>1</v>
       </c>
       <c r="Z47" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="AA47" s="4" t="s">
-        <v>149</v>
+        <v>144</v>
+      </c>
+      <c r="AA47" s="15" t="s">
+        <v>144</v>
       </c>
       <c r="AB47" s="11">
         <v>0</v>
@@ -11168,16 +11159,16 @@
         <v>0</v>
       </c>
       <c r="Q48" s="15" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="R48" s="16" t="s">
-        <v>345</v>
+        <v>305</v>
       </c>
       <c r="S48" s="16" t="s">
-        <v>168</v>
+        <v>145</v>
       </c>
       <c r="T48" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="U48" s="4" t="b">
         <v>0</v>
@@ -11195,10 +11186,10 @@
         <v>0</v>
       </c>
       <c r="Z48" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AA48" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AB48" s="4">
         <v>0</v>
@@ -11278,16 +11269,16 @@
         <v>0</v>
       </c>
       <c r="Q49" s="15" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="R49" s="16" t="s">
-        <v>154</v>
+        <v>302</v>
       </c>
       <c r="S49" s="16" t="s">
-        <v>153</v>
+        <v>351</v>
       </c>
       <c r="T49" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="U49" s="4" t="b">
         <v>0</v>
@@ -11305,10 +11296,10 @@
         <v>0</v>
       </c>
       <c r="Z49" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AA49" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AB49" s="4">
         <v>0</v>
@@ -11340,7 +11331,7 @@
     </row>
     <row r="50" spans="1:36" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A50" s="16" t="s">
-        <v>361</v>
+        <v>321</v>
       </c>
       <c r="B50" s="15" t="b">
         <v>1</v>
@@ -11388,16 +11379,16 @@
         <v>0</v>
       </c>
       <c r="Q50" s="15" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="R50" s="16" t="s">
-        <v>362</v>
+        <v>322</v>
       </c>
       <c r="S50" s="16" t="s">
-        <v>168</v>
+        <v>301</v>
       </c>
       <c r="T50" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="U50" s="4" t="b">
         <v>0</v>
@@ -11415,10 +11406,10 @@
         <v>0</v>
       </c>
       <c r="Z50" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AA50" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AB50" s="4">
         <v>0</v>
@@ -11450,7 +11441,7 @@
     </row>
     <row r="51" spans="1:36" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A51" s="16" t="s">
-        <v>370</v>
+        <v>330</v>
       </c>
       <c r="B51" s="15" t="b">
         <v>1</v>
@@ -11498,16 +11489,16 @@
         <v>0</v>
       </c>
       <c r="Q51" s="16" t="s">
-        <v>371</v>
+        <v>331</v>
       </c>
       <c r="R51" s="16" t="s">
-        <v>372</v>
+        <v>332</v>
       </c>
       <c r="S51" s="16" t="s">
-        <v>164</v>
+        <v>362</v>
       </c>
       <c r="T51" s="4" t="s">
-        <v>335</v>
+        <v>295</v>
       </c>
       <c r="U51" s="4" t="b">
         <v>1</v>
@@ -11525,10 +11516,10 @@
         <v>0</v>
       </c>
       <c r="Z51" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AA51" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AB51" s="4">
         <v>0</v>
@@ -11608,16 +11599,16 @@
         <v>0</v>
       </c>
       <c r="Q52" s="15" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="R52" s="16" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="S52" s="16" t="s">
-        <v>168</v>
+        <v>147</v>
       </c>
       <c r="T52" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="U52" s="4" t="b">
         <v>0</v>
@@ -11635,10 +11626,10 @@
         <v>0</v>
       </c>
       <c r="Z52" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AA52" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AB52" s="11">
         <v>0</v>
@@ -11718,16 +11709,16 @@
         <v>0</v>
       </c>
       <c r="Q53" s="15" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="R53" s="16" t="s">
-        <v>345</v>
+        <v>305</v>
       </c>
       <c r="S53" s="16" t="s">
-        <v>169</v>
+        <v>145</v>
       </c>
       <c r="T53" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="U53" s="4" t="b">
         <v>0</v>
@@ -11745,10 +11736,10 @@
         <v>0</v>
       </c>
       <c r="Z53" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AA53" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AB53" s="4">
         <v>6</v>
@@ -11828,16 +11819,16 @@
         <v>0</v>
       </c>
       <c r="Q54" s="16" t="s">
-        <v>191</v>
+        <v>162</v>
       </c>
       <c r="R54" s="16" t="s">
-        <v>350</v>
+        <v>310</v>
       </c>
       <c r="S54" s="16" t="s">
-        <v>175</v>
+        <v>364</v>
       </c>
       <c r="T54" s="4" t="s">
-        <v>191</v>
+        <v>162</v>
       </c>
       <c r="U54" s="4" t="b">
         <v>0</v>
@@ -11855,10 +11846,10 @@
         <v>0</v>
       </c>
       <c r="Z54" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AA54" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AB54" s="11">
         <v>0</v>
@@ -11890,7 +11881,7 @@
     </row>
     <row r="55" spans="1:36" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A55" s="16" t="s">
-        <v>383</v>
+        <v>341</v>
       </c>
       <c r="B55" s="15" t="b">
         <v>1</v>
@@ -11938,16 +11929,16 @@
         <v>0</v>
       </c>
       <c r="Q55" s="16" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="R55" s="15" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="S55" s="15" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="T55" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="U55" s="4" t="b">
         <v>0</v>
@@ -11965,10 +11956,10 @@
         <v>0</v>
       </c>
       <c r="Z55" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AA55" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AB55" s="4">
         <v>0</v>
@@ -12048,16 +12039,16 @@
         <v>0</v>
       </c>
       <c r="Q56" s="15" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="R56" s="16" t="s">
-        <v>342</v>
+        <v>302</v>
       </c>
       <c r="S56" s="16" t="s">
-        <v>153</v>
+        <v>351</v>
       </c>
       <c r="T56" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="U56" s="4" t="b">
         <v>0</v>
@@ -12075,10 +12066,10 @@
         <v>0</v>
       </c>
       <c r="Z56" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AA56" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AB56" s="4">
         <v>2</v>
@@ -12137,10 +12128,10 @@
         <v>1</v>
       </c>
       <c r="J57" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K57" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L57" s="15">
         <v>0</v>
@@ -12158,16 +12149,16 @@
         <v>0</v>
       </c>
       <c r="Q57" s="16" t="s">
-        <v>187</v>
+        <v>158</v>
       </c>
       <c r="R57" s="16" t="s">
-        <v>161</v>
+        <v>304</v>
       </c>
       <c r="S57" s="16" t="s">
-        <v>162</v>
+        <v>365</v>
       </c>
       <c r="T57" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="U57" s="4" t="b">
         <v>0</v>
@@ -12185,10 +12176,10 @@
         <v>0</v>
       </c>
       <c r="Z57" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AA57" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AB57" s="4">
         <v>0</v>
@@ -12268,16 +12259,16 @@
         <v>0</v>
       </c>
       <c r="Q58" s="15" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="R58" s="16" t="s">
-        <v>342</v>
+        <v>302</v>
       </c>
       <c r="S58" s="16" t="s">
-        <v>153</v>
+        <v>351</v>
       </c>
       <c r="T58" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="U58" s="4" t="b">
         <v>0</v>
@@ -12295,10 +12286,10 @@
         <v>0</v>
       </c>
       <c r="Z58" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AA58" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AB58" s="4">
         <v>2</v>
@@ -12378,16 +12369,16 @@
         <v>0</v>
       </c>
       <c r="Q59" s="16" t="s">
-        <v>183</v>
+        <v>154</v>
       </c>
       <c r="R59" s="16" t="s">
-        <v>353</v>
+        <v>313</v>
       </c>
       <c r="S59" s="15" t="s">
-        <v>155</v>
+        <v>366</v>
       </c>
       <c r="T59" s="4" t="s">
-        <v>334</v>
+        <v>294</v>
       </c>
       <c r="U59" s="4" t="b">
         <v>1</v>
@@ -12405,10 +12396,10 @@
         <v>0</v>
       </c>
       <c r="Z59" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AA59" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AB59" s="4">
         <v>0</v>
@@ -12488,16 +12479,16 @@
         <v>1</v>
       </c>
       <c r="Q60" s="16" t="s">
-        <v>190</v>
+        <v>161</v>
       </c>
       <c r="R60" s="16" t="s">
-        <v>363</v>
+        <v>323</v>
       </c>
       <c r="S60" s="16" t="s">
-        <v>192</v>
+        <v>367</v>
       </c>
       <c r="T60" s="4" t="s">
-        <v>332</v>
+        <v>292</v>
       </c>
       <c r="U60" s="4" t="b">
         <v>0</v>
@@ -12515,10 +12506,10 @@
         <v>0</v>
       </c>
       <c r="Z60" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AA60" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AB60" s="4">
         <v>0</v>
@@ -12598,16 +12589,16 @@
         <v>0</v>
       </c>
       <c r="Q61" s="15" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="R61" s="16" t="s">
-        <v>341</v>
+        <v>301</v>
       </c>
       <c r="S61" s="16" t="s">
-        <v>153</v>
+        <v>306</v>
       </c>
       <c r="T61" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="U61" s="4" t="b">
         <v>0</v>
@@ -12625,10 +12616,10 @@
         <v>0</v>
       </c>
       <c r="Z61" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AA61" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AB61" s="4">
         <v>0</v>
@@ -12708,16 +12699,16 @@
         <v>0</v>
       </c>
       <c r="Q62" s="16" t="s">
-        <v>183</v>
+        <v>154</v>
       </c>
       <c r="R62" s="16" t="s">
-        <v>353</v>
+        <v>313</v>
       </c>
       <c r="S62" s="16" t="s">
-        <v>154</v>
+        <v>366</v>
       </c>
       <c r="T62" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="U62" s="4" t="b">
         <v>1</v>
@@ -12735,10 +12726,10 @@
         <v>0</v>
       </c>
       <c r="Z62" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AA62" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AB62" s="11">
         <v>0</v>
@@ -12818,16 +12809,16 @@
         <v>0</v>
       </c>
       <c r="Q63" s="15" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="R63" s="16" t="s">
-        <v>360</v>
+        <v>320</v>
       </c>
       <c r="S63" s="16" t="s">
-        <v>176</v>
+        <v>368</v>
       </c>
       <c r="T63" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="U63" s="4" t="b">
         <v>0</v>
@@ -12845,10 +12836,10 @@
         <v>0</v>
       </c>
       <c r="Z63" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AA63" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AB63" s="4">
         <v>0</v>
@@ -12928,16 +12919,16 @@
         <v>0</v>
       </c>
       <c r="Q64" s="16" t="s">
-        <v>183</v>
+        <v>154</v>
       </c>
       <c r="R64" s="16" t="s">
-        <v>158</v>
+        <v>313</v>
       </c>
       <c r="S64" s="15" t="s">
-        <v>155</v>
+        <v>366</v>
       </c>
       <c r="T64" s="4" t="s">
-        <v>334</v>
+        <v>294</v>
       </c>
       <c r="U64" s="4" t="b">
         <v>1</v>
@@ -12955,10 +12946,10 @@
         <v>0</v>
       </c>
       <c r="Z64" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AA64" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AB64" s="4">
         <v>0</v>
@@ -13038,16 +13029,16 @@
         <v>0</v>
       </c>
       <c r="Q65" s="15" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="R65" s="16" t="s">
-        <v>341</v>
+        <v>301</v>
       </c>
       <c r="S65" s="16" t="s">
-        <v>153</v>
+        <v>306</v>
       </c>
       <c r="T65" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="U65" s="4" t="b">
         <v>0</v>
@@ -13065,10 +13056,10 @@
         <v>0</v>
       </c>
       <c r="Z65" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AA65" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AB65" s="11">
         <v>0</v>
@@ -13148,16 +13139,16 @@
         <v>0</v>
       </c>
       <c r="Q66" s="15" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="R66" s="16" t="s">
-        <v>151</v>
+        <v>301</v>
       </c>
       <c r="S66" s="16" t="s">
-        <v>153</v>
+        <v>306</v>
       </c>
       <c r="T66" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="U66" s="4" t="b">
         <v>0</v>
@@ -13175,10 +13166,10 @@
         <v>0</v>
       </c>
       <c r="Z66" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AA66" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AB66" s="4">
         <v>0</v>
@@ -13258,16 +13249,16 @@
         <v>0</v>
       </c>
       <c r="Q67" s="15" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="R67" s="16" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="S67" s="16" t="s">
-        <v>176</v>
+        <v>147</v>
       </c>
       <c r="T67" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="U67" s="4" t="b">
         <v>0</v>
@@ -13285,10 +13276,10 @@
         <v>0</v>
       </c>
       <c r="Z67" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AA67" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AB67" s="11">
         <v>0</v>
@@ -13368,16 +13359,16 @@
         <v>0</v>
       </c>
       <c r="Q68" s="15" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="R68" s="16" t="s">
-        <v>341</v>
+        <v>301</v>
       </c>
       <c r="S68" s="16" t="s">
-        <v>153</v>
+        <v>306</v>
       </c>
       <c r="T68" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="U68" s="4" t="b">
         <v>0</v>
@@ -13395,10 +13386,10 @@
         <v>0</v>
       </c>
       <c r="Z68" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AA68" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AB68" s="11">
         <v>0</v>
@@ -13478,16 +13469,16 @@
         <v>1</v>
       </c>
       <c r="Q69" s="16" t="s">
-        <v>187</v>
+        <v>158</v>
       </c>
       <c r="R69" s="16" t="s">
-        <v>376</v>
+        <v>336</v>
       </c>
       <c r="S69" s="16" t="s">
-        <v>171</v>
+        <v>369</v>
       </c>
       <c r="T69" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="U69" s="4" t="b">
         <v>0</v>
@@ -13505,10 +13496,10 @@
         <v>0</v>
       </c>
       <c r="Z69" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AA69" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AB69" s="4">
         <v>0</v>
@@ -13588,16 +13579,16 @@
         <v>0</v>
       </c>
       <c r="Q70" s="15" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="R70" s="16" t="s">
-        <v>341</v>
+        <v>301</v>
       </c>
       <c r="S70" s="16" t="s">
-        <v>153</v>
+        <v>306</v>
       </c>
       <c r="T70" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="U70" s="4" t="b">
         <v>0</v>
@@ -13615,10 +13606,10 @@
         <v>0</v>
       </c>
       <c r="Z70" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AA70" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AB70" s="4">
         <v>0</v>
@@ -13650,7 +13641,7 @@
     </row>
     <row r="71" spans="1:36" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A71" s="16" t="s">
-        <v>202</v>
+        <v>165</v>
       </c>
       <c r="B71" s="15" t="b">
         <v>1</v>
@@ -13698,16 +13689,16 @@
         <v>0</v>
       </c>
       <c r="Q71" s="16" t="s">
-        <v>203</v>
+        <v>166</v>
       </c>
       <c r="R71" s="16" t="s">
-        <v>367</v>
+        <v>327</v>
       </c>
       <c r="S71" s="16" t="s">
-        <v>204</v>
+        <v>370</v>
       </c>
       <c r="T71" s="4" t="s">
-        <v>333</v>
+        <v>293</v>
       </c>
       <c r="U71" s="4" t="b">
         <v>1</v>
@@ -13725,10 +13716,10 @@
         <v>0</v>
       </c>
       <c r="Z71" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AA71" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AB71" s="4">
         <v>0</v>
@@ -13808,16 +13799,16 @@
         <v>0</v>
       </c>
       <c r="Q72" s="16" t="s">
-        <v>184</v>
+        <v>155</v>
       </c>
       <c r="R72" s="16" t="s">
-        <v>351</v>
+        <v>311</v>
       </c>
       <c r="S72" s="16" t="s">
-        <v>221</v>
+        <v>371</v>
       </c>
       <c r="T72" s="4" t="s">
-        <v>336</v>
+        <v>296</v>
       </c>
       <c r="U72" s="4" t="b">
         <v>1</v>
@@ -13835,10 +13826,10 @@
         <v>0</v>
       </c>
       <c r="Z72" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AA72" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AB72" s="11">
         <v>0</v>
@@ -13918,16 +13909,16 @@
         <v>0</v>
       </c>
       <c r="Q73" s="15" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="R73" s="15" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="S73" s="15" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="T73" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="U73" s="4" t="b">
         <v>0</v>
@@ -13945,10 +13936,10 @@
         <v>0</v>
       </c>
       <c r="Z73" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AA73" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AB73" s="4">
         <v>0</v>
@@ -13963,7 +13954,7 @@
         <v>1</v>
       </c>
       <c r="AF73" s="4">
-        <v>0.625</v>
+        <v>0.66</v>
       </c>
       <c r="AG73" s="4">
         <v>25</v>
@@ -14028,16 +14019,16 @@
         <v>0</v>
       </c>
       <c r="Q74" s="15" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="R74" s="16" t="s">
-        <v>344</v>
+        <v>304</v>
       </c>
       <c r="S74" s="16" t="s">
-        <v>162</v>
+        <v>365</v>
       </c>
       <c r="T74" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="U74" s="4" t="b">
         <v>0</v>
@@ -14055,10 +14046,10 @@
         <v>0</v>
       </c>
       <c r="Z74" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AA74" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AB74" s="11">
         <v>0</v>
@@ -14090,7 +14081,7 @@
     </row>
     <row r="75" spans="1:36" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A75" s="16" t="s">
-        <v>390</v>
+        <v>348</v>
       </c>
       <c r="B75" s="15" t="b">
         <v>1</v>
@@ -14138,16 +14129,16 @@
         <v>0</v>
       </c>
       <c r="Q75" s="16" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="R75" s="15" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="S75" s="15" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="T75" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="U75" s="4" t="b">
         <v>0</v>
@@ -14165,10 +14156,10 @@
         <v>0</v>
       </c>
       <c r="Z75" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AA75" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AB75" s="4">
         <v>0</v>
@@ -14186,7 +14177,7 @@
         <v>0</v>
       </c>
       <c r="AG75" s="4">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AH75" s="4" t="b">
         <v>0</v>
@@ -14248,16 +14239,16 @@
         <v>0</v>
       </c>
       <c r="Q76" s="15" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="R76" s="16" t="s">
-        <v>167</v>
+        <v>301</v>
       </c>
       <c r="S76" s="16" t="s">
-        <v>168</v>
+        <v>306</v>
       </c>
       <c r="T76" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="U76" s="4" t="b">
         <v>0</v>
@@ -14275,10 +14266,10 @@
         <v>0</v>
       </c>
       <c r="Z76" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AA76" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AB76" s="4">
         <v>0</v>
@@ -14358,16 +14349,16 @@
         <v>0</v>
       </c>
       <c r="Q77" s="15" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="R77" s="16" t="s">
-        <v>344</v>
+        <v>304</v>
       </c>
       <c r="S77" s="16" t="s">
-        <v>166</v>
+        <v>365</v>
       </c>
       <c r="T77" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="U77" s="4" t="b">
         <v>0</v>
@@ -14385,10 +14376,10 @@
         <v>0</v>
       </c>
       <c r="Z77" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AA77" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AB77" s="4">
         <v>0</v>
@@ -14468,16 +14459,16 @@
         <v>0</v>
       </c>
       <c r="Q78" s="15" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="R78" s="16" t="s">
-        <v>344</v>
+        <v>304</v>
       </c>
       <c r="S78" s="16" t="s">
-        <v>166</v>
+        <v>365</v>
       </c>
       <c r="T78" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="U78" s="4" t="b">
         <v>0</v>
@@ -14495,10 +14486,10 @@
         <v>0</v>
       </c>
       <c r="Z78" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AA78" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AB78" s="11">
         <v>0</v>
@@ -14578,37 +14569,37 @@
         <v>0</v>
       </c>
       <c r="Q79" s="15" t="s">
-        <v>191</v>
+        <v>162</v>
       </c>
       <c r="R79" s="16" t="s">
+        <v>333</v>
+      </c>
+      <c r="S79" s="16" t="s">
+        <v>372</v>
+      </c>
+      <c r="T79" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="U79" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="V79" s="4">
+        <v>0</v>
+      </c>
+      <c r="W79" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="X79" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y79" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z79" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="S79" s="16" t="s">
-        <v>170</v>
-      </c>
-      <c r="T79" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="U79" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="V79" s="4">
-        <v>0</v>
-      </c>
-      <c r="W79" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="X79" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y79" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z79" s="4" t="s">
-        <v>144</v>
-      </c>
       <c r="AA79" s="4" t="s">
-        <v>145</v>
+        <v>374</v>
       </c>
       <c r="AB79" s="4">
         <v>0</v>
@@ -14640,7 +14631,7 @@
     </row>
     <row r="80" spans="1:36" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A80" s="16" t="s">
-        <v>388</v>
+        <v>346</v>
       </c>
       <c r="B80" s="15" t="b">
         <v>1</v>
@@ -14688,16 +14679,16 @@
         <v>0</v>
       </c>
       <c r="Q80" s="16" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="R80" s="15" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="S80" s="15" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="T80" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="U80" s="4" t="b">
         <v>0</v>
@@ -14715,10 +14706,10 @@
         <v>0</v>
       </c>
       <c r="Z80" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AA80" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AB80" s="4">
         <v>0</v>
@@ -14798,16 +14789,16 @@
         <v>0</v>
       </c>
       <c r="Q81" s="15" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="R81" s="16" t="s">
-        <v>344</v>
+        <v>304</v>
       </c>
       <c r="S81" s="16" t="s">
-        <v>162</v>
+        <v>365</v>
       </c>
       <c r="T81" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="U81" s="4" t="b">
         <v>0</v>
@@ -14825,10 +14816,10 @@
         <v>0</v>
       </c>
       <c r="Z81" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AA81" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AB81" s="4">
         <v>0</v>
@@ -14908,16 +14899,16 @@
         <v>0</v>
       </c>
       <c r="Q82" s="15" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="R82" s="16" t="s">
-        <v>346</v>
+        <v>306</v>
       </c>
       <c r="S82" s="16" t="s">
-        <v>170</v>
+        <v>302</v>
       </c>
       <c r="T82" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="U82" s="4" t="b">
         <v>0</v>
@@ -14938,7 +14929,7 @@
         <v>144</v>
       </c>
       <c r="AA82" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AB82" s="4">
         <v>0</v>
@@ -15018,16 +15009,16 @@
         <v>0</v>
       </c>
       <c r="Q83" s="15" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="R83" s="16" t="s">
-        <v>355</v>
+        <v>315</v>
       </c>
       <c r="S83" s="16" t="s">
-        <v>178</v>
+        <v>309</v>
       </c>
       <c r="T83" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="U83" s="4" t="b">
         <v>0</v>
@@ -15048,7 +15039,7 @@
         <v>144</v>
       </c>
       <c r="AA83" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AB83" s="4">
         <v>0</v>
@@ -15128,16 +15119,16 @@
         <v>1</v>
       </c>
       <c r="Q84" s="16" t="s">
-        <v>186</v>
+        <v>157</v>
       </c>
       <c r="R84" s="16" t="s">
-        <v>197</v>
+        <v>375</v>
       </c>
       <c r="S84" s="16" t="s">
-        <v>198</v>
+        <v>376</v>
       </c>
       <c r="T84" s="4" t="s">
-        <v>333</v>
+        <v>293</v>
       </c>
       <c r="U84" s="4" t="b">
         <v>0</v>
@@ -15155,10 +15146,10 @@
         <v>0</v>
       </c>
       <c r="Z84" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AA84" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AB84" s="4">
         <v>0</v>
@@ -15190,7 +15181,7 @@
     </row>
     <row r="85" spans="1:36" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A85" s="16" t="s">
-        <v>384</v>
+        <v>342</v>
       </c>
       <c r="B85" s="15" t="b">
         <v>1</v>
@@ -15214,10 +15205,10 @@
         <v>135</v>
       </c>
       <c r="I85" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J85" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K85" s="15">
         <v>0</v>
@@ -15232,22 +15223,22 @@
         <v>0</v>
       </c>
       <c r="O85" s="15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P85" s="15" t="b">
         <v>0</v>
       </c>
       <c r="Q85" s="16" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="R85" s="17" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="S85" s="17" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="T85" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="U85" s="4" t="b">
         <v>0</v>
@@ -15265,10 +15256,10 @@
         <v>0</v>
       </c>
       <c r="Z85" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AA85" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AB85" s="4">
         <v>0</v>
@@ -15300,7 +15291,7 @@
     </row>
     <row r="86" spans="1:36" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A86" s="16" t="s">
-        <v>387</v>
+        <v>345</v>
       </c>
       <c r="B86" s="15" t="b">
         <v>1</v>
@@ -15348,16 +15339,16 @@
         <v>0</v>
       </c>
       <c r="Q86" s="16" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="R86" s="15" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="S86" s="15" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="T86" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="U86" s="4" t="b">
         <v>0</v>
@@ -15375,10 +15366,10 @@
         <v>0</v>
       </c>
       <c r="Z86" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AA86" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AB86" s="4">
         <v>0</v>
@@ -15410,7 +15401,7 @@
     </row>
     <row r="87" spans="1:36" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A87" s="16" t="s">
-        <v>385</v>
+        <v>343</v>
       </c>
       <c r="B87" s="15" t="b">
         <v>1</v>
@@ -15458,16 +15449,16 @@
         <v>0</v>
       </c>
       <c r="Q87" s="16" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="R87" s="15" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="S87" s="15" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="T87" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="U87" s="4" t="b">
         <v>0</v>
@@ -15485,10 +15476,10 @@
         <v>0</v>
       </c>
       <c r="Z87" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AA87" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AB87" s="4">
         <v>0</v>
@@ -15520,7 +15511,7 @@
     </row>
     <row r="88" spans="1:36" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A88" s="16" t="s">
-        <v>382</v>
+        <v>340</v>
       </c>
       <c r="B88" s="15" t="b">
         <v>1</v>
@@ -15568,16 +15559,16 @@
         <v>0</v>
       </c>
       <c r="Q88" s="16" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="R88" s="15" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="S88" s="15" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="T88" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="U88" s="4" t="b">
         <v>0</v>
@@ -15595,10 +15586,10 @@
         <v>0</v>
       </c>
       <c r="Z88" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AA88" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AB88" s="4">
         <v>0</v>
@@ -15678,16 +15669,16 @@
         <v>0</v>
       </c>
       <c r="Q89" s="15" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="R89" s="16" t="s">
-        <v>154</v>
+        <v>302</v>
       </c>
       <c r="S89" s="16" t="s">
-        <v>153</v>
+        <v>351</v>
       </c>
       <c r="T89" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="U89" s="4" t="b">
         <v>0</v>
@@ -15705,10 +15696,10 @@
         <v>0</v>
       </c>
       <c r="Z89" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AA89" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AB89" s="4">
         <v>0</v>
@@ -15788,16 +15779,16 @@
         <v>0</v>
       </c>
       <c r="Q90" s="15" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="R90" s="16" t="s">
-        <v>166</v>
+        <v>305</v>
       </c>
       <c r="S90" s="16" t="s">
-        <v>169</v>
+        <v>145</v>
       </c>
       <c r="T90" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="U90" s="4" t="b">
         <v>0</v>
@@ -15815,10 +15806,10 @@
         <v>0</v>
       </c>
       <c r="Z90" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AA90" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AB90" s="4">
         <v>6</v>
@@ -15898,16 +15889,16 @@
         <v>0</v>
       </c>
       <c r="Q91" s="15" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="R91" s="16" t="s">
-        <v>154</v>
+        <v>302</v>
       </c>
       <c r="S91" s="16" t="s">
-        <v>153</v>
+        <v>351</v>
       </c>
       <c r="T91" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="U91" s="4" t="b">
         <v>0</v>
@@ -15925,10 +15916,10 @@
         <v>0</v>
       </c>
       <c r="Z91" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AA91" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AB91" s="4">
         <v>0</v>
@@ -16008,16 +15999,16 @@
         <v>0</v>
       </c>
       <c r="Q92" s="15" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="R92" s="16" t="s">
-        <v>144</v>
+        <v>309</v>
       </c>
       <c r="S92" s="16" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="T92" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="U92" s="4" t="b">
         <v>0</v>
@@ -16035,10 +16026,10 @@
         <v>0</v>
       </c>
       <c r="Z92" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AA92" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AB92" s="4">
         <v>0</v>
@@ -16118,16 +16109,16 @@
         <v>0</v>
       </c>
       <c r="Q93" s="15" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="R93" s="16" t="s">
-        <v>349</v>
+        <v>309</v>
       </c>
       <c r="S93" s="16" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="T93" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="U93" s="4" t="b">
         <v>0</v>
@@ -16145,10 +16136,10 @@
         <v>0</v>
       </c>
       <c r="Z93" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AA93" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AB93" s="11">
         <v>0</v>
@@ -16228,16 +16219,16 @@
         <v>0</v>
       </c>
       <c r="Q94" s="15" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="R94" s="16" t="s">
-        <v>154</v>
+        <v>377</v>
       </c>
       <c r="S94" s="16" t="s">
-        <v>196</v>
+        <v>315</v>
       </c>
       <c r="T94" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="U94" s="4" t="b">
         <v>0</v>
@@ -16255,10 +16246,10 @@
         <v>0</v>
       </c>
       <c r="Z94" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AA94" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AB94" s="4">
         <v>0</v>
@@ -16338,16 +16329,16 @@
         <v>0</v>
       </c>
       <c r="Q95" s="15" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="R95" s="16" t="s">
-        <v>342</v>
+        <v>302</v>
       </c>
       <c r="S95" s="16" t="s">
-        <v>153</v>
+        <v>351</v>
       </c>
       <c r="T95" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="U95" s="4" t="b">
         <v>0</v>
@@ -16365,10 +16356,10 @@
         <v>0</v>
       </c>
       <c r="Z95" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AA95" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AB95" s="4">
         <v>2</v>
@@ -16448,16 +16439,16 @@
         <v>0</v>
       </c>
       <c r="Q96" s="16" t="s">
-        <v>183</v>
+        <v>154</v>
       </c>
       <c r="R96" s="16" t="s">
-        <v>343</v>
+        <v>303</v>
       </c>
       <c r="S96" s="15" t="s">
-        <v>155</v>
+        <v>378</v>
       </c>
       <c r="T96" s="4" t="s">
-        <v>334</v>
+        <v>294</v>
       </c>
       <c r="U96" s="4" t="b">
         <v>1</v>
@@ -16475,10 +16466,10 @@
         <v>0</v>
       </c>
       <c r="Z96" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AA96" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AB96" s="11">
         <v>0</v>
@@ -16558,16 +16549,16 @@
         <v>0</v>
       </c>
       <c r="Q97" s="15" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="R97" s="16" t="s">
-        <v>341</v>
+        <v>301</v>
       </c>
       <c r="S97" s="16" t="s">
-        <v>152</v>
+        <v>306</v>
       </c>
       <c r="T97" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="U97" s="4" t="b">
         <v>0</v>
@@ -16585,10 +16576,10 @@
         <v>0</v>
       </c>
       <c r="Z97" s="4" t="s">
-        <v>148</v>
+        <v>379</v>
       </c>
       <c r="AA97" s="4" t="s">
-        <v>147</v>
+        <v>380</v>
       </c>
       <c r="AB97" s="11">
         <v>0</v>
@@ -16668,16 +16659,16 @@
         <v>0</v>
       </c>
       <c r="Q98" s="15" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="R98" s="16" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="S98" s="16" t="s">
-        <v>168</v>
+        <v>147</v>
       </c>
       <c r="T98" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="U98" s="4" t="b">
         <v>0</v>
@@ -16695,10 +16686,10 @@
         <v>0</v>
       </c>
       <c r="Z98" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AA98" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AB98" s="11">
         <v>0</v>
@@ -16778,16 +16769,16 @@
         <v>1</v>
       </c>
       <c r="Q99" s="16" t="s">
-        <v>182</v>
+        <v>153</v>
       </c>
       <c r="R99" s="16" t="s">
-        <v>369</v>
+        <v>329</v>
       </c>
       <c r="S99" s="16" t="s">
-        <v>194</v>
+        <v>381</v>
       </c>
       <c r="T99" s="4" t="s">
-        <v>331</v>
+        <v>291</v>
       </c>
       <c r="U99" s="4" t="b">
         <v>0</v>
@@ -16805,10 +16796,10 @@
         <v>0</v>
       </c>
       <c r="Z99" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AA99" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AB99" s="4">
         <v>0</v>
@@ -16888,16 +16879,16 @@
         <v>0</v>
       </c>
       <c r="Q100" s="16" t="s">
-        <v>191</v>
+        <v>162</v>
       </c>
       <c r="R100" s="16" t="s">
-        <v>374</v>
+        <v>334</v>
       </c>
       <c r="S100" s="16" t="s">
-        <v>195</v>
+        <v>382</v>
       </c>
       <c r="T100" s="4" t="s">
-        <v>191</v>
+        <v>162</v>
       </c>
       <c r="U100" s="4" t="b">
         <v>0</v>
@@ -16915,10 +16906,10 @@
         <v>0</v>
       </c>
       <c r="Z100" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AA100" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AB100" s="4">
         <v>0</v>
@@ -16998,16 +16989,16 @@
         <v>1</v>
       </c>
       <c r="Q101" s="16" t="s">
-        <v>187</v>
+        <v>158</v>
       </c>
       <c r="R101" s="16" t="s">
-        <v>377</v>
+        <v>337</v>
       </c>
       <c r="S101" s="16" t="s">
-        <v>171</v>
+        <v>315</v>
       </c>
       <c r="T101" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="U101" s="4" t="b">
         <v>0</v>
@@ -17025,10 +17016,10 @@
         <v>0</v>
       </c>
       <c r="Z101" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AA101" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AB101" s="4">
         <v>0</v>
@@ -17108,16 +17099,16 @@
         <v>0</v>
       </c>
       <c r="Q102" s="15" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="R102" s="16" t="s">
-        <v>341</v>
+        <v>301</v>
       </c>
       <c r="S102" s="16" t="s">
-        <v>168</v>
+        <v>306</v>
       </c>
       <c r="T102" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="U102" s="4" t="b">
         <v>0</v>
@@ -17135,10 +17126,10 @@
         <v>0</v>
       </c>
       <c r="Z102" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AA102" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AB102" s="4">
         <v>0</v>
@@ -17218,16 +17209,16 @@
         <v>0</v>
       </c>
       <c r="Q103" s="15" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="R103" s="16" t="s">
-        <v>345</v>
+        <v>305</v>
       </c>
       <c r="S103" s="16" t="s">
-        <v>169</v>
+        <v>145</v>
       </c>
       <c r="T103" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="U103" s="4" t="b">
         <v>0</v>
@@ -17245,10 +17236,10 @@
         <v>0</v>
       </c>
       <c r="Z103" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AA103" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AB103" s="4">
         <v>6</v>
@@ -17328,16 +17319,16 @@
         <v>0</v>
       </c>
       <c r="Q104" s="16" t="s">
-        <v>185</v>
+        <v>156</v>
       </c>
       <c r="R104" s="16" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="S104" s="16" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="T104" s="4" t="s">
-        <v>335</v>
+        <v>295</v>
       </c>
       <c r="U104" s="4" t="b">
         <v>1</v>
@@ -17355,10 +17346,10 @@
         <v>0</v>
       </c>
       <c r="Z104" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AA104" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AB104" s="4">
         <v>0</v>
@@ -17438,16 +17429,16 @@
         <v>0</v>
       </c>
       <c r="Q105" s="15" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="R105" s="15" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="S105" s="15" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="T105" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="U105" s="4" t="b">
         <v>0</v>
@@ -17465,10 +17456,10 @@
         <v>0</v>
       </c>
       <c r="Z105" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AA105" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AB105" s="4">
         <v>0</v>
@@ -17548,16 +17539,16 @@
         <v>0</v>
       </c>
       <c r="Q106" s="15" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="R106" s="16" t="s">
-        <v>345</v>
+        <v>305</v>
       </c>
       <c r="S106" s="16" t="s">
-        <v>169</v>
+        <v>145</v>
       </c>
       <c r="T106" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="U106" s="4" t="b">
         <v>0</v>
@@ -17575,10 +17566,10 @@
         <v>0</v>
       </c>
       <c r="Z106" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AA106" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AB106" s="4">
         <v>6</v>
@@ -17658,16 +17649,16 @@
         <v>0</v>
       </c>
       <c r="Q107" s="15" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="R107" s="16" t="s">
-        <v>226</v>
+        <v>186</v>
       </c>
       <c r="S107" s="16" t="s">
-        <v>166</v>
+        <v>356</v>
       </c>
       <c r="T107" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="U107" s="4" t="b">
         <v>0</v>
@@ -17685,10 +17676,10 @@
         <v>0</v>
       </c>
       <c r="Z107" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AA107" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AB107" s="4">
         <v>0</v>
@@ -17768,16 +17759,16 @@
         <v>0</v>
       </c>
       <c r="Q108" s="15" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="R108" s="16" t="s">
-        <v>165</v>
+        <v>368</v>
       </c>
       <c r="S108" s="16" t="s">
-        <v>152</v>
+        <v>302</v>
       </c>
       <c r="T108" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="U108" s="4" t="b">
         <v>0</v>
@@ -17795,10 +17786,10 @@
         <v>0</v>
       </c>
       <c r="Z108" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AA108" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AB108" s="4">
         <v>0</v>
@@ -17830,64 +17821,64 @@
     </row>
     <row r="109" spans="1:36" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A109" s="16" t="s">
-        <v>381</v>
+        <v>127</v>
       </c>
       <c r="B109" s="15" t="b">
         <v>1</v>
       </c>
       <c r="C109" s="15" t="s">
-        <v>130</v>
+        <v>103</v>
       </c>
       <c r="D109" s="15">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="E109" s="15" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="F109" s="15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G109" s="16">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H109" s="15" t="s">
-        <v>92</v>
+        <v>36</v>
       </c>
       <c r="I109" s="15">
-        <v>1</v>
-      </c>
-      <c r="J109" s="15">
-        <v>1</v>
-      </c>
-      <c r="K109" s="15">
-        <v>0</v>
-      </c>
-      <c r="L109" s="15">
-        <v>0</v>
-      </c>
-      <c r="M109" s="15">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="J109" s="16">
+        <v>4</v>
+      </c>
+      <c r="K109" s="16">
+        <v>0</v>
+      </c>
+      <c r="L109" s="16">
+        <v>7</v>
+      </c>
+      <c r="M109" s="16">
+        <v>7</v>
       </c>
       <c r="N109" s="15">
         <v>0</v>
       </c>
       <c r="O109" s="15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P109" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q109" s="15" t="s">
-        <v>146</v>
+        <v>1</v>
+      </c>
+      <c r="Q109" s="16" t="s">
+        <v>153</v>
       </c>
       <c r="R109" s="16" t="s">
-        <v>165</v>
+        <v>383</v>
       </c>
       <c r="S109" s="16" t="s">
-        <v>152</v>
+        <v>384</v>
       </c>
       <c r="T109" s="4" t="s">
-        <v>146</v>
+        <v>291</v>
       </c>
       <c r="U109" s="4" t="b">
         <v>0</v>
@@ -17905,10 +17896,10 @@
         <v>0</v>
       </c>
       <c r="Z109" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AA109" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AB109" s="4">
         <v>0</v>
@@ -17940,43 +17931,43 @@
     </row>
     <row r="110" spans="1:36" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A110" s="16" t="s">
-        <v>127</v>
+        <v>95</v>
       </c>
       <c r="B110" s="15" t="b">
         <v>1</v>
       </c>
       <c r="C110" s="15" t="s">
-        <v>103</v>
+        <v>75</v>
       </c>
       <c r="D110" s="15">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="E110" s="15" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F110" s="15" t="b">
         <v>0</v>
       </c>
       <c r="G110" s="16">
-        <v>100</v>
+        <v>34</v>
       </c>
       <c r="H110" s="15" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I110" s="15">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J110" s="16">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K110" s="16">
         <v>0</v>
       </c>
-      <c r="L110" s="16">
-        <v>7</v>
-      </c>
-      <c r="M110" s="16">
-        <v>7</v>
+      <c r="L110" s="15">
+        <v>2</v>
+      </c>
+      <c r="M110" s="15">
+        <v>2</v>
       </c>
       <c r="N110" s="15">
         <v>0</v>
@@ -17988,16 +17979,16 @@
         <v>1</v>
       </c>
       <c r="Q110" s="16" t="s">
-        <v>182</v>
+        <v>160</v>
       </c>
       <c r="R110" s="16" t="s">
-        <v>179</v>
+        <v>326</v>
       </c>
       <c r="S110" s="16" t="s">
-        <v>180</v>
+        <v>385</v>
       </c>
       <c r="T110" s="4" t="s">
-        <v>331</v>
+        <v>162</v>
       </c>
       <c r="U110" s="4" t="b">
         <v>0</v>
@@ -18015,10 +18006,10 @@
         <v>0</v>
       </c>
       <c r="Z110" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AA110" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AB110" s="4">
         <v>0</v>
@@ -18050,7 +18041,7 @@
     </row>
     <row r="111" spans="1:36" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A111" s="16" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="B111" s="15" t="b">
         <v>1</v>
@@ -18059,55 +18050,55 @@
         <v>75</v>
       </c>
       <c r="D111" s="15">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="E111" s="15" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="F111" s="15" t="b">
         <v>0</v>
       </c>
       <c r="G111" s="16">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="H111" s="15" t="s">
         <v>32</v>
       </c>
       <c r="I111" s="15">
-        <v>2</v>
-      </c>
-      <c r="J111" s="16">
-        <v>2</v>
-      </c>
-      <c r="K111" s="16">
+        <v>1</v>
+      </c>
+      <c r="J111" s="15">
+        <v>1</v>
+      </c>
+      <c r="K111" s="15">
         <v>0</v>
       </c>
       <c r="L111" s="15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M111" s="15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N111" s="15">
         <v>0</v>
       </c>
       <c r="O111" s="15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P111" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q111" s="16" t="s">
-        <v>189</v>
+        <v>0</v>
+      </c>
+      <c r="Q111" s="15" t="s">
+        <v>144</v>
       </c>
       <c r="R111" s="16" t="s">
-        <v>366</v>
+        <v>151</v>
       </c>
       <c r="S111" s="16" t="s">
-        <v>193</v>
+        <v>172</v>
       </c>
       <c r="T111" s="4" t="s">
-        <v>191</v>
+        <v>144</v>
       </c>
       <c r="U111" s="4" t="b">
         <v>0</v>
@@ -18119,16 +18110,16 @@
         <v>0</v>
       </c>
       <c r="X111" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y111" s="4" t="b">
         <v>0</v>
       </c>
       <c r="Z111" s="4" t="s">
-        <v>146</v>
+        <v>387</v>
       </c>
       <c r="AA111" s="4" t="s">
-        <v>146</v>
+        <v>386</v>
       </c>
       <c r="AB111" s="4">
         <v>0</v>
@@ -18158,115 +18149,42 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:36" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A112" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="B112" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="C112" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="D112" s="15">
-        <v>0</v>
-      </c>
-      <c r="E112" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="F112" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="G112" s="16">
-        <v>5</v>
-      </c>
-      <c r="H112" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="I112" s="15">
-        <v>1</v>
-      </c>
-      <c r="J112" s="15">
-        <v>1</v>
-      </c>
-      <c r="K112" s="15">
-        <v>0</v>
-      </c>
-      <c r="L112" s="15">
-        <v>0</v>
-      </c>
-      <c r="M112" s="15">
-        <v>0</v>
-      </c>
-      <c r="N112" s="15">
-        <v>0</v>
-      </c>
-      <c r="O112" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="P112" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q112" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="R112" s="16" t="s">
-        <v>165</v>
-      </c>
-      <c r="S112" s="16" t="s">
-        <v>170</v>
-      </c>
-      <c r="T112" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="U112" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="V112" s="4">
-        <v>0</v>
-      </c>
-      <c r="W112" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="X112" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y112" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z112" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="AA112" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="AB112" s="4">
-        <v>0</v>
-      </c>
-      <c r="AC112" s="4">
-        <v>0</v>
-      </c>
-      <c r="AD112" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE112" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF112" s="4">
-        <v>0</v>
-      </c>
-      <c r="AG112" s="4">
-        <v>0</v>
-      </c>
-      <c r="AH112" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI112" s="4">
-        <v>1</v>
-      </c>
-      <c r="AJ112" s="4">
-        <v>1</v>
-      </c>
+    <row r="112" spans="1:36" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A112" s="5"/>
+      <c r="B112" s="2"/>
+      <c r="C112" s="2"/>
+      <c r="D112" s="2"/>
+      <c r="E112" s="2"/>
+      <c r="F112" s="2"/>
+      <c r="G112" s="4"/>
+      <c r="H112" s="2"/>
+      <c r="I112" s="2"/>
+      <c r="J112" s="2"/>
+      <c r="K112" s="2"/>
+      <c r="L112" s="2"/>
+      <c r="M112" s="2"/>
+      <c r="N112" s="2"/>
+      <c r="O112" s="2"/>
+      <c r="P112" s="2"/>
+      <c r="Q112" s="2"/>
+      <c r="R112" s="4"/>
+      <c r="S112" s="4"/>
+      <c r="U112" s="2"/>
+      <c r="V112" s="2"/>
+      <c r="W112" s="2"/>
+      <c r="X112" s="2"/>
+      <c r="Y112" s="3"/>
+      <c r="Z112" s="2"/>
+      <c r="AA112" s="2"/>
+      <c r="AB112" s="2"/>
+      <c r="AC112" s="2"/>
+      <c r="AD112" s="2"/>
+      <c r="AE112" s="2"/>
+      <c r="AF112" s="2"/>
+      <c r="AG112" s="2"/>
+      <c r="AH112" s="2"/>
+      <c r="AI112" s="2"/>
+      <c r="AJ112" s="2"/>
     </row>
     <row r="113" spans="1:41" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A113" s="5"/>
@@ -18305,121 +18223,121 @@
       <c r="AI113" s="2"/>
       <c r="AJ113" s="2"/>
     </row>
-    <row r="114" spans="1:41" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A114" s="5"/>
-      <c r="B114" s="2"/>
-      <c r="C114" s="2"/>
-      <c r="D114" s="2"/>
-      <c r="E114" s="2"/>
-      <c r="F114" s="2"/>
-      <c r="G114" s="4"/>
-      <c r="H114" s="2"/>
-      <c r="I114" s="2"/>
-      <c r="J114" s="2"/>
-      <c r="K114" s="2"/>
-      <c r="L114" s="2"/>
-      <c r="M114" s="2"/>
-      <c r="N114" s="2"/>
-      <c r="O114" s="2"/>
-      <c r="P114" s="2"/>
-      <c r="Q114" s="2"/>
-      <c r="R114" s="4"/>
-      <c r="S114" s="4"/>
-      <c r="U114" s="2"/>
-      <c r="V114" s="2"/>
-      <c r="W114" s="2"/>
-      <c r="X114" s="2"/>
+    <row r="114" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="3"/>
+      <c r="B114" s="3"/>
+      <c r="C114" s="3"/>
+      <c r="D114" s="3"/>
+      <c r="E114" s="3"/>
+      <c r="F114" s="3"/>
+      <c r="G114" s="3"/>
+      <c r="H114" s="3"/>
+      <c r="I114" s="3"/>
+      <c r="J114" s="3"/>
+      <c r="K114" s="3"/>
+      <c r="L114" s="3"/>
+      <c r="M114" s="3"/>
+      <c r="N114" s="3"/>
+      <c r="O114" s="3"/>
+      <c r="P114" s="3"/>
+      <c r="Q114" s="3"/>
+      <c r="R114" s="3"/>
+      <c r="S114" s="3"/>
+      <c r="T114" s="3"/>
+      <c r="U114" s="3"/>
+      <c r="V114" s="3"/>
+      <c r="W114" s="3"/>
+      <c r="X114" s="3"/>
       <c r="Y114" s="3"/>
-      <c r="Z114" s="2"/>
-      <c r="AA114" s="2"/>
-      <c r="AB114" s="2"/>
-      <c r="AC114" s="2"/>
-      <c r="AD114" s="2"/>
-      <c r="AE114" s="2"/>
-      <c r="AF114" s="2"/>
-      <c r="AG114" s="2"/>
-      <c r="AH114" s="2"/>
-      <c r="AI114" s="2"/>
-      <c r="AJ114" s="2"/>
+      <c r="Z114" s="3"/>
+      <c r="AA114" s="3"/>
+      <c r="AB114" s="3"/>
+      <c r="AC114" s="3"/>
+      <c r="AD114" s="3"/>
+      <c r="AE114" s="3"/>
+      <c r="AF114" s="3"/>
+      <c r="AG114" s="3"/>
+      <c r="AH114" s="3"/>
+      <c r="AI114" s="3"/>
+      <c r="AJ114" s="3"/>
+      <c r="AL114" s="3"/>
+      <c r="AM114" s="3"/>
+      <c r="AN114" s="3"/>
+      <c r="AO114" s="3"/>
     </row>
-    <row r="115" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="3"/>
-      <c r="B115" s="3"/>
-      <c r="C115" s="3"/>
-      <c r="D115" s="3"/>
-      <c r="E115" s="3"/>
-      <c r="F115" s="3"/>
-      <c r="G115" s="3"/>
-      <c r="H115" s="3"/>
-      <c r="I115" s="3"/>
-      <c r="J115" s="3"/>
-      <c r="K115" s="3"/>
-      <c r="L115" s="3"/>
-      <c r="M115" s="3"/>
-      <c r="N115" s="3"/>
-      <c r="O115" s="3"/>
-      <c r="P115" s="3"/>
-      <c r="Q115" s="3"/>
-      <c r="R115" s="3"/>
-      <c r="S115" s="3"/>
-      <c r="T115" s="3"/>
-      <c r="U115" s="3"/>
-      <c r="V115" s="3"/>
-      <c r="W115" s="3"/>
-      <c r="X115" s="3"/>
-      <c r="Y115" s="3"/>
-      <c r="Z115" s="3"/>
-      <c r="AA115" s="3"/>
-      <c r="AB115" s="3"/>
-      <c r="AC115" s="3"/>
-      <c r="AD115" s="3"/>
-      <c r="AE115" s="3"/>
-      <c r="AF115" s="3"/>
-      <c r="AG115" s="3"/>
-      <c r="AH115" s="3"/>
-      <c r="AI115" s="3"/>
-      <c r="AJ115" s="3"/>
-      <c r="AL115" s="3"/>
-      <c r="AM115" s="3"/>
-      <c r="AN115" s="3"/>
-      <c r="AO115" s="3"/>
+    <row r="115" spans="1:41" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A115" s="5"/>
+      <c r="B115" s="5"/>
+      <c r="C115" s="5"/>
+      <c r="D115" s="5"/>
+      <c r="E115" s="5"/>
+      <c r="F115" s="5"/>
+      <c r="G115" s="5"/>
+      <c r="H115" s="5"/>
+      <c r="I115" s="5"/>
+      <c r="J115" s="5"/>
+      <c r="K115" s="5"/>
+      <c r="L115" s="5"/>
+      <c r="M115" s="5"/>
+      <c r="N115" s="5"/>
+      <c r="O115" s="5"/>
+      <c r="P115" s="5"/>
+      <c r="Q115" s="5"/>
+      <c r="R115" s="5"/>
+      <c r="S115" s="5"/>
+      <c r="U115" s="5"/>
+      <c r="V115" s="5"/>
+      <c r="W115" s="5"/>
+      <c r="X115" s="5"/>
+      <c r="Y115" s="5"/>
+      <c r="Z115" s="5"/>
+      <c r="AA115" s="5"/>
+      <c r="AB115" s="6"/>
+      <c r="AC115" s="6"/>
+      <c r="AD115" s="5"/>
+      <c r="AE115" s="5"/>
+      <c r="AF115" s="5"/>
+      <c r="AG115" s="5"/>
+      <c r="AH115" s="7"/>
+      <c r="AI115" s="5"/>
+      <c r="AJ115" s="7"/>
     </row>
     <row r="116" spans="1:41" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A116" s="5"/>
-      <c r="B116" s="5"/>
-      <c r="C116" s="5"/>
-      <c r="D116" s="5"/>
-      <c r="E116" s="5"/>
-      <c r="F116" s="5"/>
-      <c r="G116" s="5"/>
-      <c r="H116" s="5"/>
-      <c r="I116" s="5"/>
-      <c r="J116" s="5"/>
-      <c r="K116" s="5"/>
-      <c r="L116" s="5"/>
-      <c r="M116" s="5"/>
-      <c r="N116" s="5"/>
-      <c r="O116" s="5"/>
-      <c r="P116" s="5"/>
-      <c r="Q116" s="5"/>
-      <c r="R116" s="5"/>
-      <c r="S116" s="5"/>
-      <c r="U116" s="5"/>
-      <c r="V116" s="5"/>
-      <c r="W116" s="5"/>
-      <c r="X116" s="5"/>
-      <c r="Y116" s="5"/>
-      <c r="Z116" s="5"/>
-      <c r="AA116" s="5"/>
-      <c r="AB116" s="6"/>
-      <c r="AC116" s="6"/>
-      <c r="AD116" s="5"/>
-      <c r="AE116" s="5"/>
-      <c r="AF116" s="5"/>
-      <c r="AG116" s="5"/>
-      <c r="AH116" s="7"/>
-      <c r="AI116" s="5"/>
-      <c r="AJ116" s="7"/>
+      <c r="B116" s="2"/>
+      <c r="C116" s="2"/>
+      <c r="D116" s="2"/>
+      <c r="E116" s="2"/>
+      <c r="F116" s="2"/>
+      <c r="G116" s="4"/>
+      <c r="H116" s="2"/>
+      <c r="I116" s="2"/>
+      <c r="J116" s="2"/>
+      <c r="K116" s="2"/>
+      <c r="L116" s="2"/>
+      <c r="M116" s="2"/>
+      <c r="N116" s="2"/>
+      <c r="O116" s="2"/>
+      <c r="P116" s="2"/>
+      <c r="Q116" s="4"/>
+      <c r="R116" s="2"/>
+      <c r="S116" s="2"/>
+      <c r="U116" s="2"/>
+      <c r="V116" s="2"/>
+      <c r="W116" s="2"/>
+      <c r="X116" s="2"/>
+      <c r="Y116" s="3"/>
+      <c r="Z116" s="2"/>
+      <c r="AA116" s="2"/>
+      <c r="AB116" s="2"/>
+      <c r="AC116" s="2"/>
+      <c r="AD116" s="2"/>
+      <c r="AE116" s="2"/>
+      <c r="AF116" s="2"/>
+      <c r="AG116" s="2"/>
+      <c r="AH116" s="2"/>
+      <c r="AI116" s="2"/>
+      <c r="AJ116" s="2"/>
     </row>
     <row r="117" spans="1:41" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A117" s="5"/>
@@ -18439,8 +18357,8 @@
       <c r="O117" s="2"/>
       <c r="P117" s="2"/>
       <c r="Q117" s="4"/>
-      <c r="R117" s="2"/>
-      <c r="S117" s="2"/>
+      <c r="R117" s="3"/>
+      <c r="S117" s="3"/>
       <c r="U117" s="2"/>
       <c r="V117" s="2"/>
       <c r="W117" s="2"/>
@@ -18460,76 +18378,76 @@
     </row>
     <row r="118" spans="1:41" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A118" s="5"/>
-      <c r="B118" s="2"/>
-      <c r="C118" s="2"/>
-      <c r="D118" s="2"/>
-      <c r="E118" s="2"/>
-      <c r="F118" s="2"/>
+      <c r="B118" s="4"/>
+      <c r="C118" s="4"/>
+      <c r="D118" s="4"/>
+      <c r="E118" s="4"/>
+      <c r="F118" s="4"/>
       <c r="G118" s="4"/>
-      <c r="H118" s="2"/>
-      <c r="I118" s="2"/>
-      <c r="J118" s="2"/>
-      <c r="K118" s="2"/>
-      <c r="L118" s="2"/>
-      <c r="M118" s="2"/>
+      <c r="H118" s="4"/>
+      <c r="I118" s="4"/>
+      <c r="J118" s="4"/>
+      <c r="K118" s="4"/>
+      <c r="L118" s="4"/>
+      <c r="M118" s="4"/>
       <c r="N118" s="2"/>
-      <c r="O118" s="2"/>
-      <c r="P118" s="2"/>
+      <c r="O118" s="4"/>
+      <c r="P118" s="4"/>
       <c r="Q118" s="4"/>
-      <c r="R118" s="3"/>
-      <c r="S118" s="3"/>
-      <c r="U118" s="2"/>
-      <c r="V118" s="2"/>
-      <c r="W118" s="2"/>
-      <c r="X118" s="2"/>
+      <c r="R118" s="2"/>
+      <c r="S118" s="2"/>
+      <c r="U118" s="4"/>
+      <c r="V118" s="4"/>
+      <c r="W118" s="4"/>
+      <c r="X118" s="4"/>
       <c r="Y118" s="3"/>
       <c r="Z118" s="2"/>
       <c r="AA118" s="2"/>
-      <c r="AB118" s="2"/>
-      <c r="AC118" s="2"/>
+      <c r="AB118" s="4"/>
+      <c r="AC118" s="4"/>
       <c r="AD118" s="2"/>
       <c r="AE118" s="2"/>
       <c r="AF118" s="2"/>
-      <c r="AG118" s="2"/>
+      <c r="AG118" s="4"/>
       <c r="AH118" s="2"/>
-      <c r="AI118" s="2"/>
+      <c r="AI118" s="4"/>
       <c r="AJ118" s="2"/>
     </row>
     <row r="119" spans="1:41" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A119" s="5"/>
-      <c r="B119" s="4"/>
-      <c r="C119" s="4"/>
-      <c r="D119" s="4"/>
-      <c r="E119" s="4"/>
-      <c r="F119" s="4"/>
+      <c r="B119" s="2"/>
+      <c r="C119" s="2"/>
+      <c r="D119" s="2"/>
+      <c r="E119" s="2"/>
+      <c r="F119" s="2"/>
       <c r="G119" s="4"/>
-      <c r="H119" s="4"/>
-      <c r="I119" s="4"/>
-      <c r="J119" s="4"/>
-      <c r="K119" s="4"/>
-      <c r="L119" s="4"/>
-      <c r="M119" s="4"/>
+      <c r="H119" s="2"/>
+      <c r="I119" s="2"/>
+      <c r="J119" s="2"/>
+      <c r="K119" s="2"/>
+      <c r="L119" s="2"/>
+      <c r="M119" s="2"/>
       <c r="N119" s="2"/>
-      <c r="O119" s="4"/>
-      <c r="P119" s="4"/>
+      <c r="O119" s="2"/>
+      <c r="P119" s="2"/>
       <c r="Q119" s="4"/>
-      <c r="R119" s="2"/>
-      <c r="S119" s="2"/>
-      <c r="U119" s="4"/>
-      <c r="V119" s="4"/>
-      <c r="W119" s="4"/>
-      <c r="X119" s="4"/>
+      <c r="R119" s="3"/>
+      <c r="S119" s="3"/>
+      <c r="U119" s="2"/>
+      <c r="V119" s="2"/>
+      <c r="W119" s="2"/>
+      <c r="X119" s="2"/>
       <c r="Y119" s="3"/>
       <c r="Z119" s="2"/>
       <c r="AA119" s="2"/>
-      <c r="AB119" s="4"/>
-      <c r="AC119" s="4"/>
+      <c r="AB119" s="2"/>
+      <c r="AC119" s="2"/>
       <c r="AD119" s="2"/>
       <c r="AE119" s="2"/>
       <c r="AF119" s="2"/>
-      <c r="AG119" s="4"/>
+      <c r="AG119" s="2"/>
       <c r="AH119" s="2"/>
-      <c r="AI119" s="4"/>
+      <c r="AI119" s="2"/>
       <c r="AJ119" s="2"/>
     </row>
     <row r="120" spans="1:41" ht="12.75" x14ac:dyDescent="0.2">
@@ -18550,8 +18468,8 @@
       <c r="O120" s="2"/>
       <c r="P120" s="2"/>
       <c r="Q120" s="4"/>
-      <c r="R120" s="3"/>
-      <c r="S120" s="3"/>
+      <c r="R120" s="2"/>
+      <c r="S120" s="2"/>
       <c r="U120" s="2"/>
       <c r="V120" s="2"/>
       <c r="W120" s="2"/>
@@ -18569,88 +18487,71 @@
       <c r="AI120" s="2"/>
       <c r="AJ120" s="2"/>
     </row>
-    <row r="121" spans="1:41" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A121" s="5"/>
-      <c r="B121" s="2"/>
-      <c r="C121" s="2"/>
-      <c r="D121" s="2"/>
-      <c r="E121" s="2"/>
-      <c r="F121" s="2"/>
-      <c r="G121" s="4"/>
-      <c r="H121" s="2"/>
-      <c r="I121" s="2"/>
-      <c r="J121" s="2"/>
-      <c r="K121" s="2"/>
-      <c r="L121" s="2"/>
-      <c r="M121" s="2"/>
-      <c r="N121" s="2"/>
-      <c r="O121" s="2"/>
-      <c r="P121" s="2"/>
-      <c r="Q121" s="4"/>
-      <c r="R121" s="2"/>
-      <c r="S121" s="2"/>
-      <c r="U121" s="2"/>
-      <c r="V121" s="2"/>
-      <c r="W121" s="2"/>
-      <c r="X121" s="2"/>
+    <row r="121" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="3"/>
+      <c r="B121" s="3"/>
+      <c r="C121" s="3"/>
+      <c r="D121" s="3"/>
+      <c r="E121" s="3"/>
+      <c r="F121" s="3"/>
+      <c r="G121" s="3"/>
+      <c r="H121" s="3"/>
+      <c r="I121" s="3"/>
+      <c r="J121" s="3"/>
+      <c r="K121" s="3"/>
+      <c r="L121" s="3"/>
+      <c r="M121" s="3"/>
+      <c r="N121" s="3"/>
+      <c r="O121" s="3"/>
+      <c r="P121" s="3"/>
+      <c r="Q121" s="3"/>
+      <c r="R121" s="3"/>
+      <c r="S121" s="3"/>
+      <c r="T121" s="3"/>
+      <c r="U121" s="3"/>
+      <c r="V121" s="3"/>
+      <c r="W121" s="3"/>
+      <c r="X121" s="3"/>
       <c r="Y121" s="3"/>
-      <c r="Z121" s="2"/>
-      <c r="AA121" s="2"/>
-      <c r="AB121" s="2"/>
-      <c r="AC121" s="2"/>
-      <c r="AD121" s="2"/>
-      <c r="AE121" s="2"/>
-      <c r="AF121" s="2"/>
-      <c r="AG121" s="2"/>
-      <c r="AH121" s="2"/>
-      <c r="AI121" s="2"/>
-      <c r="AJ121" s="2"/>
-    </row>
-    <row r="122" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="3"/>
-      <c r="B122" s="3"/>
-      <c r="C122" s="3"/>
-      <c r="D122" s="3"/>
-      <c r="E122" s="3"/>
-      <c r="F122" s="3"/>
-      <c r="G122" s="3"/>
-      <c r="H122" s="3"/>
-      <c r="I122" s="3"/>
-      <c r="J122" s="3"/>
-      <c r="K122" s="3"/>
-      <c r="L122" s="3"/>
-      <c r="M122" s="3"/>
-      <c r="N122" s="3"/>
-      <c r="O122" s="3"/>
-      <c r="P122" s="3"/>
-      <c r="Q122" s="3"/>
-      <c r="R122" s="3"/>
-      <c r="S122" s="3"/>
-      <c r="T122" s="3"/>
-      <c r="U122" s="3"/>
-      <c r="V122" s="3"/>
-      <c r="W122" s="3"/>
-      <c r="X122" s="3"/>
-      <c r="Y122" s="3"/>
-      <c r="Z122" s="3"/>
-      <c r="AA122" s="3"/>
-      <c r="AB122" s="3"/>
-      <c r="AC122" s="3"/>
-      <c r="AD122" s="3"/>
-      <c r="AE122" s="3"/>
-      <c r="AF122" s="3"/>
-      <c r="AG122" s="3"/>
-      <c r="AH122" s="3"/>
-      <c r="AI122" s="3"/>
-      <c r="AJ122" s="3"/>
-      <c r="AL122" s="3"/>
-      <c r="AM122" s="3"/>
-      <c r="AN122" s="3"/>
-      <c r="AO122" s="3"/>
+      <c r="Z121" s="3"/>
+      <c r="AA121" s="3"/>
+      <c r="AB121" s="3"/>
+      <c r="AC121" s="3"/>
+      <c r="AD121" s="3"/>
+      <c r="AE121" s="3"/>
+      <c r="AF121" s="3"/>
+      <c r="AG121" s="3"/>
+      <c r="AH121" s="3"/>
+      <c r="AI121" s="3"/>
+      <c r="AJ121" s="3"/>
+      <c r="AL121" s="3"/>
+      <c r="AM121" s="3"/>
+      <c r="AN121" s="3"/>
+      <c r="AO121" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="Z112:AA112">
+    <cfRule type="colorScale" priority="319">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF57BB8A"/>
+        <color rgb="FFFFFFFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="Z113:AA113">
+    <cfRule type="colorScale" priority="318">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF57BB8A"/>
+        <color rgb="FFFFFFFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z116:AA120">
     <cfRule type="colorScale" priority="317">
       <colorScale>
         <cfvo type="min"/>
@@ -18660,8 +18561,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z114:AA114">
-    <cfRule type="colorScale" priority="316">
+  <conditionalFormatting sqref="R120:S120">
+    <cfRule type="colorScale" priority="276">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -18670,8 +18571,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z117:AA121">
-    <cfRule type="colorScale" priority="315">
+  <conditionalFormatting sqref="R118:S118">
+    <cfRule type="colorScale" priority="275">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -18680,7 +18581,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R121:S121">
+  <conditionalFormatting sqref="R116:S116">
     <cfRule type="colorScale" priority="274">
       <colorScale>
         <cfvo type="min"/>
@@ -18690,18 +18591,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R119:S119">
-    <cfRule type="colorScale" priority="273">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF57BB8A"/>
-        <color rgb="FFFFFFFF"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R117:S117">
-    <cfRule type="colorScale" priority="272">
+  <conditionalFormatting sqref="Q112">
+    <cfRule type="colorScale" priority="220">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -18711,17 +18602,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q113">
-    <cfRule type="colorScale" priority="218">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF57BB8A"/>
-        <color rgb="FFFFFFFF"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q114">
-    <cfRule type="colorScale" priority="217">
+    <cfRule type="colorScale" priority="219">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -18731,7 +18612,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z3:AA22">
-    <cfRule type="colorScale" priority="174">
+    <cfRule type="colorScale" priority="176">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -18741,7 +18622,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z23:AA25">
-    <cfRule type="colorScale" priority="162">
+    <cfRule type="colorScale" priority="164">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -18751,7 +18632,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z28:AA46">
-    <cfRule type="colorScale" priority="161">
+    <cfRule type="colorScale" priority="163">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -18761,7 +18642,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z48:AA52 Z54:AA78">
-    <cfRule type="colorScale" priority="148">
+    <cfRule type="colorScale" priority="150">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -18771,7 +18652,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z79:AA79">
-    <cfRule type="colorScale" priority="129">
+    <cfRule type="colorScale" priority="131">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -18781,6 +18662,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z81:AA87 Z89:AA105">
+    <cfRule type="colorScale" priority="130">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF57BB8A"/>
+        <color rgb="FFFFFFFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R95:S95">
     <cfRule type="colorScale" priority="128">
       <colorScale>
         <cfvo type="min"/>
@@ -18790,18 +18681,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R95:S95">
-    <cfRule type="colorScale" priority="126">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF57BB8A"/>
-        <color rgb="FFFFFFFF"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="Q95">
-    <cfRule type="colorScale" priority="116">
+    <cfRule type="colorScale" priority="118">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -18811,7 +18692,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z106:AA106">
-    <cfRule type="colorScale" priority="112">
+    <cfRule type="colorScale" priority="114">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -18821,7 +18702,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z107:AA107">
-    <cfRule type="colorScale" priority="111">
+    <cfRule type="colorScale" priority="113">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -18830,7 +18711,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z108:AA112">
+  <conditionalFormatting sqref="T111">
     <cfRule type="colorScale" priority="106">
       <colorScale>
         <cfvo type="min"/>
@@ -18840,8 +18721,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T112">
-    <cfRule type="colorScale" priority="104">
+  <conditionalFormatting sqref="T101">
+    <cfRule type="colorScale" priority="103">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -18850,7 +18731,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T101">
+  <conditionalFormatting sqref="Z53:AA53">
+    <cfRule type="colorScale" priority="102">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF57BB8A"/>
+        <color rgb="FFFFFFFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z88:AA88">
     <cfRule type="colorScale" priority="101">
       <colorScale>
         <cfvo type="min"/>
@@ -18860,7 +18751,37 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z53:AA53">
+  <conditionalFormatting sqref="AD112">
+    <cfRule type="colorScale" priority="331">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF57BB8A"/>
+        <color rgb="FFFFFFFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD113">
+    <cfRule type="colorScale" priority="332">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF57BB8A"/>
+        <color rgb="FFFFFFFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD116:AD120">
+    <cfRule type="colorScale" priority="333">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF57BB8A"/>
+        <color rgb="FFFFFFFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R24:S24">
     <cfRule type="colorScale" priority="100">
       <colorScale>
         <cfvo type="min"/>
@@ -18870,8 +18791,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z88:AA88">
-    <cfRule type="colorScale" priority="99">
+  <conditionalFormatting sqref="Q24">
+    <cfRule type="colorScale" priority="334">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -18880,8 +18801,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD113">
-    <cfRule type="colorScale" priority="329">
+  <conditionalFormatting sqref="R5:S5">
+    <cfRule type="colorScale" priority="97">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -18890,27 +18811,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD114">
-    <cfRule type="colorScale" priority="330">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF57BB8A"/>
-        <color rgb="FFFFFFFF"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD117:AD121">
-    <cfRule type="colorScale" priority="331">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF57BB8A"/>
-        <color rgb="FFFFFFFF"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R24:S24">
+  <conditionalFormatting sqref="Q5">
     <cfRule type="colorScale" priority="98">
       <colorScale>
         <cfvo type="min"/>
@@ -18920,8 +18821,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q24">
-    <cfRule type="colorScale" priority="332">
+  <conditionalFormatting sqref="Q21">
+    <cfRule type="colorScale" priority="96">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -18930,7 +18831,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R5:S5">
+  <conditionalFormatting sqref="R16:S16">
+    <cfRule type="colorScale" priority="94">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF57BB8A"/>
+        <color rgb="FFFFFFFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q16">
     <cfRule type="colorScale" priority="95">
       <colorScale>
         <cfvo type="min"/>
@@ -18940,8 +18851,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q5">
-    <cfRule type="colorScale" priority="96">
+  <conditionalFormatting sqref="Q14">
+    <cfRule type="colorScale" priority="93">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -18950,17 +18861,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q21">
-    <cfRule type="colorScale" priority="94">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF57BB8A"/>
-        <color rgb="FFFFFFFF"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R16:S16">
+  <conditionalFormatting sqref="Q11">
     <cfRule type="colorScale" priority="92">
       <colorScale>
         <cfvo type="min"/>
@@ -18970,8 +18871,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q16">
-    <cfRule type="colorScale" priority="93">
+  <conditionalFormatting sqref="R18:S18">
+    <cfRule type="colorScale" priority="90">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -18980,7 +18881,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q14">
+  <conditionalFormatting sqref="Q18">
     <cfRule type="colorScale" priority="91">
       <colorScale>
         <cfvo type="min"/>
@@ -18990,8 +18891,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q11">
-    <cfRule type="colorScale" priority="90">
+  <conditionalFormatting sqref="Q25">
+    <cfRule type="colorScale" priority="89">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -19000,7 +18901,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R18:S18">
+  <conditionalFormatting sqref="Q7">
     <cfRule type="colorScale" priority="88">
       <colorScale>
         <cfvo type="min"/>
@@ -19010,17 +18911,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q18">
-    <cfRule type="colorScale" priority="89">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF57BB8A"/>
-        <color rgb="FFFFFFFF"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q25">
+  <conditionalFormatting sqref="Q12">
     <cfRule type="colorScale" priority="87">
       <colorScale>
         <cfvo type="min"/>
@@ -19030,7 +18921,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q7">
+  <conditionalFormatting sqref="R17:S17">
+    <cfRule type="colorScale" priority="85">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF57BB8A"/>
+        <color rgb="FFFFFFFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q17">
     <cfRule type="colorScale" priority="86">
       <colorScale>
         <cfvo type="min"/>
@@ -19040,8 +18941,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q12">
-    <cfRule type="colorScale" priority="85">
+  <conditionalFormatting sqref="Q22">
+    <cfRule type="colorScale" priority="84">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -19050,7 +18951,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R17:S17">
+  <conditionalFormatting sqref="Q8">
     <cfRule type="colorScale" priority="83">
       <colorScale>
         <cfvo type="min"/>
@@ -19060,17 +18961,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q17">
-    <cfRule type="colorScale" priority="84">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF57BB8A"/>
-        <color rgb="FFFFFFFF"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q22">
+  <conditionalFormatting sqref="Q20">
     <cfRule type="colorScale" priority="82">
       <colorScale>
         <cfvo type="min"/>
@@ -19080,7 +18971,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q8">
+  <conditionalFormatting sqref="R6:S6">
     <cfRule type="colorScale" priority="81">
       <colorScale>
         <cfvo type="min"/>
@@ -19090,7 +18981,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q20">
+  <conditionalFormatting sqref="Q6">
     <cfRule type="colorScale" priority="80">
       <colorScale>
         <cfvo type="min"/>
@@ -19100,7 +18991,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R6:S6">
+  <conditionalFormatting sqref="Q107">
+    <cfRule type="colorScale" priority="78">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF57BB8A"/>
+        <color rgb="FFFFFFFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R107:S107">
     <cfRule type="colorScale" priority="79">
       <colorScale>
         <cfvo type="min"/>
@@ -19110,17 +19011,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q6">
-    <cfRule type="colorScale" priority="78">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF57BB8A"/>
-        <color rgb="FFFFFFFF"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q107">
+  <conditionalFormatting sqref="Q111">
     <cfRule type="colorScale" priority="76">
       <colorScale>
         <cfvo type="min"/>
@@ -19130,7 +19021,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R107:S107">
+  <conditionalFormatting sqref="R111:S111">
     <cfRule type="colorScale" priority="77">
       <colorScale>
         <cfvo type="min"/>
@@ -19140,8 +19031,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q112">
-    <cfRule type="colorScale" priority="74">
+  <conditionalFormatting sqref="Q109">
+    <cfRule type="colorScale" priority="75">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -19150,8 +19041,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R112:S112">
-    <cfRule type="colorScale" priority="75">
+  <conditionalFormatting sqref="Q106">
+    <cfRule type="colorScale" priority="74">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -19170,7 +19061,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q106">
+  <conditionalFormatting sqref="R99:S99">
     <cfRule type="colorScale" priority="72">
       <colorScale>
         <cfvo type="min"/>
@@ -19180,7 +19071,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q111">
+  <conditionalFormatting sqref="Q99">
     <cfRule type="colorScale" priority="71">
       <colorScale>
         <cfvo type="min"/>
@@ -19190,7 +19081,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R99:S99">
+  <conditionalFormatting sqref="Q100">
     <cfRule type="colorScale" priority="70">
       <colorScale>
         <cfvo type="min"/>
@@ -19200,7 +19091,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q99">
+  <conditionalFormatting sqref="Q101">
     <cfRule type="colorScale" priority="69">
       <colorScale>
         <cfvo type="min"/>
@@ -19210,17 +19101,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q100">
-    <cfRule type="colorScale" priority="68">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF57BB8A"/>
-        <color rgb="FFFFFFFF"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q101">
+  <conditionalFormatting sqref="R104:S104">
     <cfRule type="colorScale" priority="67">
       <colorScale>
         <cfvo type="min"/>
@@ -19230,7 +19111,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q109">
+  <conditionalFormatting sqref="Q69">
     <cfRule type="colorScale" priority="66">
       <colorScale>
         <cfvo type="min"/>
@@ -19240,7 +19121,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R104:S104">
+  <conditionalFormatting sqref="Q53">
     <cfRule type="colorScale" priority="65">
       <colorScale>
         <cfvo type="min"/>
@@ -19250,7 +19131,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q69">
+  <conditionalFormatting sqref="Q60">
     <cfRule type="colorScale" priority="64">
       <colorScale>
         <cfvo type="min"/>
@@ -19260,7 +19141,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q53">
+  <conditionalFormatting sqref="Q47">
     <cfRule type="colorScale" priority="63">
       <colorScale>
         <cfvo type="min"/>
@@ -19270,8 +19151,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q60">
-    <cfRule type="colorScale" priority="62">
+  <conditionalFormatting sqref="Q56">
+    <cfRule type="colorScale" priority="60">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -19280,8 +19161,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q47">
-    <cfRule type="colorScale" priority="61">
+  <conditionalFormatting sqref="R56:S56">
+    <cfRule type="colorScale" priority="59">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -19290,7 +19171,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q56">
+  <conditionalFormatting sqref="Q49">
     <cfRule type="colorScale" priority="58">
       <colorScale>
         <cfvo type="min"/>
@@ -19300,7 +19181,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R56:S56">
+  <conditionalFormatting sqref="R57:S57">
     <cfRule type="colorScale" priority="57">
       <colorScale>
         <cfvo type="min"/>
@@ -19310,7 +19191,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q49">
+  <conditionalFormatting sqref="Q57">
     <cfRule type="colorScale" priority="56">
       <colorScale>
         <cfvo type="min"/>
@@ -19320,7 +19201,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R57:S57">
+  <conditionalFormatting sqref="Q64">
     <cfRule type="colorScale" priority="55">
       <colorScale>
         <cfvo type="min"/>
@@ -19330,7 +19211,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q57">
+  <conditionalFormatting sqref="Q63">
     <cfRule type="colorScale" priority="54">
       <colorScale>
         <cfvo type="min"/>
@@ -19340,7 +19221,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q64">
+  <conditionalFormatting sqref="Q61">
     <cfRule type="colorScale" priority="53">
       <colorScale>
         <cfvo type="min"/>
@@ -19350,7 +19231,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q63">
+  <conditionalFormatting sqref="Q52">
     <cfRule type="colorScale" priority="52">
       <colorScale>
         <cfvo type="min"/>
@@ -19360,7 +19241,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q61">
+  <conditionalFormatting sqref="Q43">
     <cfRule type="colorScale" priority="51">
       <colorScale>
         <cfvo type="min"/>
@@ -19370,7 +19251,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q52">
+  <conditionalFormatting sqref="Q50">
     <cfRule type="colorScale" priority="50">
       <colorScale>
         <cfvo type="min"/>
@@ -19380,8 +19261,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q43">
-    <cfRule type="colorScale" priority="49">
+  <conditionalFormatting sqref="R59:S59">
+    <cfRule type="colorScale" priority="47">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -19390,8 +19271,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q50">
-    <cfRule type="colorScale" priority="48">
+  <conditionalFormatting sqref="Q59">
+    <cfRule type="colorScale" priority="46">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -19400,7 +19281,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R59:S59">
+  <conditionalFormatting sqref="R58:S58">
+    <cfRule type="colorScale" priority="44">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF57BB8A"/>
+        <color rgb="FFFFFFFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q58">
     <cfRule type="colorScale" priority="45">
       <colorScale>
         <cfvo type="min"/>
@@ -19410,8 +19301,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q59">
-    <cfRule type="colorScale" priority="44">
+  <conditionalFormatting sqref="Q67">
+    <cfRule type="colorScale" priority="43">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -19420,7 +19311,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R58:S58">
+  <conditionalFormatting sqref="Q87">
     <cfRule type="colorScale" priority="42">
       <colorScale>
         <cfvo type="min"/>
@@ -19430,17 +19321,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q58">
-    <cfRule type="colorScale" priority="43">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF57BB8A"/>
-        <color rgb="FFFFFFFF"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q67">
+  <conditionalFormatting sqref="Q2">
     <cfRule type="colorScale" priority="41">
       <colorScale>
         <cfvo type="min"/>
@@ -19450,7 +19331,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q87">
+  <conditionalFormatting sqref="Q96">
     <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="min"/>
@@ -19460,7 +19341,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q2">
+  <conditionalFormatting sqref="R76:S76">
     <cfRule type="colorScale" priority="39">
       <colorScale>
         <cfvo type="min"/>
@@ -19470,7 +19351,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q96">
+  <conditionalFormatting sqref="Q76">
     <cfRule type="colorScale" priority="38">
       <colorScale>
         <cfvo type="min"/>
@@ -19480,7 +19361,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R76:S76">
+  <conditionalFormatting sqref="R82:S82">
     <cfRule type="colorScale" priority="37">
       <colorScale>
         <cfvo type="min"/>
@@ -19490,7 +19371,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q76">
+  <conditionalFormatting sqref="Q82">
     <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="min"/>
@@ -19500,7 +19381,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R82:S82">
+  <conditionalFormatting sqref="Q70">
     <cfRule type="colorScale" priority="35">
       <colorScale>
         <cfvo type="min"/>
@@ -19510,7 +19391,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q82">
+  <conditionalFormatting sqref="Q74">
     <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="min"/>
@@ -19520,7 +19401,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q70">
+  <conditionalFormatting sqref="R84:S84">
     <cfRule type="colorScale" priority="33">
       <colorScale>
         <cfvo type="min"/>
@@ -19530,7 +19411,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q74">
+  <conditionalFormatting sqref="Q84">
     <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="min"/>
@@ -19540,7 +19421,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R84:S84">
+  <conditionalFormatting sqref="Q86">
     <cfRule type="colorScale" priority="31">
       <colorScale>
         <cfvo type="min"/>
@@ -19550,7 +19431,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q84">
+  <conditionalFormatting sqref="Q90">
     <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="min"/>
@@ -19560,7 +19441,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q86">
+  <conditionalFormatting sqref="Q89">
     <cfRule type="colorScale" priority="29">
       <colorScale>
         <cfvo type="min"/>
@@ -19570,7 +19451,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q90">
+  <conditionalFormatting sqref="Q80">
     <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="min"/>
@@ -19580,7 +19461,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q89">
+  <conditionalFormatting sqref="Q3">
     <cfRule type="colorScale" priority="27">
       <colorScale>
         <cfvo type="min"/>
@@ -19590,7 +19471,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q80">
+  <conditionalFormatting sqref="Q91">
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="min"/>
@@ -19600,7 +19481,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q3">
+  <conditionalFormatting sqref="Q92">
     <cfRule type="colorScale" priority="25">
       <colorScale>
         <cfvo type="min"/>
@@ -19610,7 +19491,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q91">
+  <conditionalFormatting sqref="R97:S97">
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="min"/>
@@ -19620,7 +19501,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q92">
+  <conditionalFormatting sqref="Q26">
     <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min"/>
@@ -19630,7 +19511,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R97:S97">
+  <conditionalFormatting sqref="Q28">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min"/>
@@ -19640,7 +19521,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q26">
+  <conditionalFormatting sqref="Z27:AA27">
     <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min"/>
@@ -19650,7 +19531,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q28">
+  <conditionalFormatting sqref="Q27">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
@@ -19660,7 +19541,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z27:AA27">
+  <conditionalFormatting sqref="R40:S40">
     <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
@@ -19670,8 +19551,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q27">
-    <cfRule type="colorScale" priority="18">
+  <conditionalFormatting sqref="R36:S36">
+    <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -19680,8 +19561,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R40:S40">
-    <cfRule type="colorScale" priority="17">
+  <conditionalFormatting sqref="R34:S34">
+    <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -19690,7 +19571,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R36:S36">
+  <conditionalFormatting sqref="R41:S41">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
@@ -19700,8 +19581,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R34:S34">
-    <cfRule type="colorScale" priority="13">
+  <conditionalFormatting sqref="R30:S30">
+    <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -19710,17 +19591,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R41:S41">
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF57BB8A"/>
-        <color rgb="FFFFFFFF"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R30:S30">
+  <conditionalFormatting sqref="R29:S29">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -19730,7 +19601,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R29:S29">
+  <conditionalFormatting sqref="R33:S33">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -19740,7 +19611,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R33:S33">
+  <conditionalFormatting sqref="R75:S75">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -19750,7 +19621,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R75:S75">
+  <conditionalFormatting sqref="R38:S38">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -19770,8 +19641,18 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R38:S38">
+  <conditionalFormatting sqref="R64:S64">
     <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF57BB8A"/>
+        <color rgb="FFFFFFFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z108:AA111">
+    <cfRule type="colorScale" priority="335">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -19810,18 +19691,18 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>264</v>
+        <v>224</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>328</v>
+        <v>288</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>318</v>
+        <v>278</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>294</v>
+        <v>254</v>
       </c>
       <c r="C2" s="8">
         <v>0</v>
@@ -19829,10 +19710,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>314</v>
+        <v>274</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>294</v>
+        <v>254</v>
       </c>
       <c r="C3">
         <v>0.25</v>
@@ -19840,10 +19721,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>313</v>
+        <v>273</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>294</v>
+        <v>254</v>
       </c>
       <c r="C4">
         <v>1.1000000000000001</v>
@@ -19851,10 +19732,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>312</v>
+        <v>272</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>294</v>
+        <v>254</v>
       </c>
       <c r="C5">
         <v>1.1000000000000001</v>
@@ -19862,10 +19743,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>311</v>
+        <v>271</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>294</v>
+        <v>254</v>
       </c>
       <c r="C6">
         <v>1.1000000000000001</v>
@@ -19873,10 +19754,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
-        <v>324</v>
+        <v>284</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>294</v>
+        <v>254</v>
       </c>
       <c r="C7">
         <v>2.5000000000000001E-2</v>
@@ -19884,10 +19765,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
-        <v>325</v>
+        <v>285</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>294</v>
+        <v>254</v>
       </c>
       <c r="C8">
         <v>0.05</v>
@@ -19895,10 +19776,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
-        <v>326</v>
+        <v>286</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>294</v>
+        <v>254</v>
       </c>
       <c r="C9">
         <v>7.4999999999999997E-2</v>
@@ -19906,10 +19787,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
-        <v>327</v>
+        <v>287</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>294</v>
+        <v>254</v>
       </c>
       <c r="C10">
         <v>0.1</v>
@@ -19917,10 +19798,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
-        <v>329</v>
+        <v>289</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>294</v>
+        <v>254</v>
       </c>
       <c r="C11">
         <v>5.0000000000000001E-3</v>
@@ -19956,24 +19837,24 @@
         <v>0</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>264</v>
+        <v>224</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>284</v>
+        <v>244</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>285</v>
+        <v>245</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>286</v>
+        <v>246</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
-        <v>319</v>
+        <v>279</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>294</v>
+        <v>254</v>
       </c>
       <c r="C2" s="14">
         <v>0</v>
@@ -20015,24 +19896,24 @@
         <v>0</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>264</v>
+        <v>224</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>284</v>
+        <v>244</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>285</v>
+        <v>245</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>286</v>
+        <v>246</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
-        <v>320</v>
+        <v>280</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>294</v>
+        <v>254</v>
       </c>
       <c r="C2" s="14">
         <v>0</v>
@@ -20074,24 +19955,24 @@
         <v>0</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>264</v>
+        <v>224</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>284</v>
+        <v>244</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>285</v>
+        <v>245</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>286</v>
+        <v>246</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
-        <v>321</v>
+        <v>281</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>294</v>
+        <v>254</v>
       </c>
       <c r="C2" s="14">
         <v>0</v>
@@ -20133,24 +20014,24 @@
         <v>0</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>264</v>
+        <v>224</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>284</v>
+        <v>244</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>285</v>
+        <v>245</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>286</v>
+        <v>246</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
-        <v>322</v>
+        <v>282</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>294</v>
+        <v>254</v>
       </c>
       <c r="C2" s="14">
         <v>0</v>
@@ -20192,24 +20073,24 @@
         <v>0</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>264</v>
+        <v>224</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>284</v>
+        <v>244</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>285</v>
+        <v>245</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>286</v>
+        <v>246</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
-        <v>323</v>
+        <v>283</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>294</v>
+        <v>254</v>
       </c>
       <c r="C2" s="14">
         <v>0</v>
@@ -20319,10 +20200,10 @@
         <v>23</v>
       </c>
       <c r="Z1" s="6" t="s">
-        <v>259</v>
+        <v>219</v>
       </c>
       <c r="AA1" s="6" t="s">
-        <v>260</v>
+        <v>220</v>
       </c>
       <c r="AB1" s="7" t="s">
         <v>141</v>
@@ -20343,21 +20224,21 @@
         <v>26</v>
       </c>
       <c r="AH1" s="7" t="s">
-        <v>261</v>
+        <v>221</v>
       </c>
       <c r="AI1" s="5" t="s">
         <v>28</v>
       </c>
       <c r="AJ1" s="7" t="s">
-        <v>205</v>
+        <v>167</v>
       </c>
       <c r="AK1" s="7" t="s">
-        <v>211</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>206</v>
+        <v>168</v>
       </c>
       <c r="B2" s="2" t="b">
         <v>0</v>
@@ -20405,13 +20286,13 @@
         <v>0</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="R2" s="4" t="s">
-        <v>207</v>
+        <v>169</v>
       </c>
       <c r="S2" s="4" t="s">
-        <v>208</v>
+        <v>170</v>
       </c>
       <c r="T2" s="2" t="b">
         <v>0</v>
@@ -20426,10 +20307,10 @@
         <v>0</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="Z2" s="2">
         <v>0</v>
@@ -20441,10 +20322,10 @@
         <v>0</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AE2" s="2" t="b">
         <v>0</v>
@@ -20470,7 +20351,7 @@
     </row>
     <row r="3" spans="1:37" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
-        <v>214</v>
+        <v>176</v>
       </c>
       <c r="B3" s="3" t="b">
         <v>0</v>
@@ -20491,7 +20372,7 @@
         <v>20</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>212</v>
+        <v>174</v>
       </c>
       <c r="I3" s="3">
         <v>1</v>
@@ -20518,13 +20399,13 @@
         <v>0</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="R3" s="4" t="s">
-        <v>209</v>
+        <v>171</v>
       </c>
       <c r="S3" s="4" t="s">
-        <v>210</v>
+        <v>172</v>
       </c>
       <c r="T3" s="3" t="b">
         <v>0</v>
@@ -20539,10 +20420,10 @@
         <v>0</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="Z3" s="2">
         <v>0</v>
@@ -20554,10 +20435,10 @@
         <v>0</v>
       </c>
       <c r="AC3" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AD3" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AE3" s="2" t="b">
         <v>0</v>
@@ -20583,7 +20464,7 @@
     </row>
     <row r="4" spans="1:37" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
-        <v>215</v>
+        <v>177</v>
       </c>
       <c r="B4" s="3" t="b">
         <v>0</v>
@@ -20604,7 +20485,7 @@
         <v>20</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>212</v>
+        <v>174</v>
       </c>
       <c r="I4" s="3">
         <v>5</v>
@@ -20631,13 +20512,13 @@
         <v>0</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>183</v>
+        <v>154</v>
       </c>
       <c r="R4" s="4" t="s">
-        <v>219</v>
+        <v>181</v>
       </c>
       <c r="S4" s="4" t="s">
-        <v>220</v>
+        <v>182</v>
       </c>
       <c r="T4" s="3" t="b">
         <v>0</v>
@@ -20652,10 +20533,10 @@
         <v>0</v>
       </c>
       <c r="X4" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="Y4" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="Z4" s="2">
         <v>0</v>
@@ -20667,10 +20548,10 @@
         <v>0</v>
       </c>
       <c r="AC4" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AD4" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AE4" s="2" t="b">
         <v>0</v>
@@ -20696,7 +20577,7 @@
     </row>
     <row r="5" spans="1:37" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>213</v>
+        <v>175</v>
       </c>
       <c r="B5" s="3" t="b">
         <v>0</v>
@@ -20717,7 +20598,7 @@
         <v>20</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>212</v>
+        <v>174</v>
       </c>
       <c r="I5" s="3">
         <v>4</v>
@@ -20744,13 +20625,13 @@
         <v>0</v>
       </c>
       <c r="Q5" s="4" t="s">
-        <v>223</v>
+        <v>183</v>
       </c>
       <c r="R5" s="4" t="s">
-        <v>224</v>
+        <v>184</v>
       </c>
       <c r="S5" s="4" t="s">
-        <v>225</v>
+        <v>185</v>
       </c>
       <c r="T5" s="3" t="b">
         <v>0</v>
@@ -20765,10 +20646,10 @@
         <v>0</v>
       </c>
       <c r="X5" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="Y5" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="Z5" s="2">
         <v>0</v>
@@ -20780,10 +20661,10 @@
         <v>0</v>
       </c>
       <c r="AC5" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AD5" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AE5" s="2" t="b">
         <v>0</v>
@@ -20809,7 +20690,7 @@
     </row>
     <row r="6" spans="1:37" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>216</v>
+        <v>178</v>
       </c>
       <c r="B6" s="3" t="b">
         <v>0</v>
@@ -20830,7 +20711,7 @@
         <v>20</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>212</v>
+        <v>174</v>
       </c>
       <c r="I6" s="3">
         <v>1</v>
@@ -20857,13 +20738,13 @@
         <v>0</v>
       </c>
       <c r="Q6" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="R6" s="4" t="s">
-        <v>226</v>
+        <v>186</v>
       </c>
       <c r="S6" s="4" t="s">
-        <v>227</v>
+        <v>187</v>
       </c>
       <c r="T6" s="3" t="b">
         <v>0</v>
@@ -20878,10 +20759,10 @@
         <v>0</v>
       </c>
       <c r="X6" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="Y6" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="Z6" s="2">
         <v>0</v>
@@ -20893,10 +20774,10 @@
         <v>0</v>
       </c>
       <c r="AC6" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AD6" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AE6" s="2" t="b">
         <v>0</v>
@@ -20922,7 +20803,7 @@
     </row>
     <row r="7" spans="1:37" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>217</v>
+        <v>179</v>
       </c>
       <c r="B7" s="3" t="b">
         <v>0</v>
@@ -20943,7 +20824,7 @@
         <v>20</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>212</v>
+        <v>174</v>
       </c>
       <c r="I7" s="3">
         <v>1</v>
@@ -20970,13 +20851,13 @@
         <v>0</v>
       </c>
       <c r="Q7" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="R7" s="4" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="S7" s="4" t="s">
-        <v>209</v>
+        <v>171</v>
       </c>
       <c r="T7" s="3" t="b">
         <v>0</v>
@@ -20991,10 +20872,10 @@
         <v>0</v>
       </c>
       <c r="X7" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="Y7" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="Z7" s="2">
         <v>0</v>
@@ -21006,10 +20887,10 @@
         <v>0</v>
       </c>
       <c r="AC7" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AD7" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AE7" s="2" t="b">
         <v>0</v>
@@ -21035,7 +20916,7 @@
     </row>
     <row r="8" spans="1:37" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>218</v>
+        <v>180</v>
       </c>
       <c r="B8" s="3" t="b">
         <v>0</v>
@@ -21056,7 +20937,7 @@
         <v>20</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>212</v>
+        <v>174</v>
       </c>
       <c r="I8" s="3">
         <v>1</v>
@@ -21083,13 +20964,13 @@
         <v>0</v>
       </c>
       <c r="Q8" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="R8" s="4" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="S8" s="4" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="T8" s="3" t="b">
         <v>0</v>
@@ -21104,10 +20985,10 @@
         <v>0</v>
       </c>
       <c r="X8" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="Y8" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="Z8" s="2">
         <v>0</v>
@@ -21119,10 +21000,10 @@
         <v>0</v>
       </c>
       <c r="AC8" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AD8" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AE8" s="2" t="b">
         <v>0</v>
@@ -21148,7 +21029,7 @@
     </row>
     <row r="9" spans="1:37" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
-        <v>228</v>
+        <v>188</v>
       </c>
       <c r="B9" s="3" t="b">
         <v>0</v>
@@ -21169,7 +21050,7 @@
         <v>25</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>212</v>
+        <v>174</v>
       </c>
       <c r="I9" s="3">
         <v>6</v>
@@ -21196,13 +21077,13 @@
         <v>0</v>
       </c>
       <c r="Q9" s="4" t="s">
-        <v>229</v>
+        <v>189</v>
       </c>
       <c r="R9" s="4" t="s">
-        <v>233</v>
+        <v>193</v>
       </c>
       <c r="S9" s="4" t="s">
-        <v>230</v>
+        <v>190</v>
       </c>
       <c r="T9" s="3" t="b">
         <v>0</v>
@@ -21217,10 +21098,10 @@
         <v>0</v>
       </c>
       <c r="X9" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="Y9" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="Z9" s="2">
         <v>0</v>
@@ -21232,10 +21113,10 @@
         <v>0</v>
       </c>
       <c r="AC9" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AD9" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AE9" s="2" t="b">
         <v>0</v>
@@ -21261,7 +21142,7 @@
     </row>
     <row r="10" spans="1:37" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
-        <v>231</v>
+        <v>191</v>
       </c>
       <c r="B10" s="3" t="b">
         <v>0</v>
@@ -21282,7 +21163,7 @@
         <v>25</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>212</v>
+        <v>174</v>
       </c>
       <c r="I10" s="3">
         <v>1</v>
@@ -21309,13 +21190,13 @@
         <v>0</v>
       </c>
       <c r="Q10" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="R10" s="4" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="S10" s="4" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="T10" s="3" t="b">
         <v>0</v>
@@ -21330,10 +21211,10 @@
         <v>0</v>
       </c>
       <c r="X10" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="Y10" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="Z10" s="2">
         <v>0</v>
@@ -21345,10 +21226,10 @@
         <v>0</v>
       </c>
       <c r="AC10" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AD10" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AE10" s="2" t="b">
         <v>0</v>
@@ -21374,7 +21255,7 @@
     </row>
     <row r="11" spans="1:37" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
-        <v>232</v>
+        <v>192</v>
       </c>
       <c r="B11" s="3" t="b">
         <v>0</v>
@@ -21395,7 +21276,7 @@
         <v>25</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>212</v>
+        <v>174</v>
       </c>
       <c r="I11" s="3">
         <v>0</v>
@@ -21422,13 +21303,13 @@
         <v>0</v>
       </c>
       <c r="Q11" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="R11" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="S11" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="T11" s="3" t="b">
         <v>0</v>
@@ -21443,10 +21324,10 @@
         <v>0</v>
       </c>
       <c r="X11" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="Y11" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="Z11" s="2">
         <v>0</v>
@@ -21458,10 +21339,10 @@
         <v>0</v>
       </c>
       <c r="AC11" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AD11" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AE11" s="2" t="b">
         <v>0</v>
@@ -21487,13 +21368,13 @@
     </row>
     <row r="16" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>273</v>
+        <v>233</v>
       </c>
       <c r="B16">
         <v>90</v>
       </c>
       <c r="C16" t="s">
-        <v>271</v>
+        <v>231</v>
       </c>
       <c r="D16" t="s">
         <v>34</v>
@@ -21505,27 +21386,27 @@
         <v>2458</v>
       </c>
       <c r="G16" t="s">
-        <v>272</v>
+        <v>232</v>
       </c>
       <c r="H16">
         <v>2</v>
       </c>
       <c r="I16" t="s">
-        <v>283</v>
+        <v>243</v>
       </c>
       <c r="J16" t="s">
-        <v>270</v>
+        <v>230</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>274</v>
+        <v>234</v>
       </c>
       <c r="B17">
         <v>92</v>
       </c>
       <c r="C17" t="s">
-        <v>268</v>
+        <v>228</v>
       </c>
       <c r="D17" t="s">
         <v>34</v>
@@ -21537,21 +21418,21 @@
         <v>2577</v>
       </c>
       <c r="G17" t="s">
-        <v>275</v>
+        <v>235</v>
       </c>
       <c r="H17">
         <v>9</v>
       </c>
       <c r="I17" t="s">
-        <v>283</v>
+        <v>243</v>
       </c>
       <c r="J17" t="s">
-        <v>276</v>
+        <v>236</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>277</v>
+        <v>237</v>
       </c>
       <c r="B18">
         <v>80</v>
@@ -21569,16 +21450,16 @@
         <v>1924</v>
       </c>
       <c r="G18" t="s">
-        <v>278</v>
+        <v>238</v>
       </c>
       <c r="H18">
         <v>8</v>
       </c>
       <c r="I18" t="s">
-        <v>283</v>
+        <v>243</v>
       </c>
       <c r="J18" t="s">
-        <v>279</v>
+        <v>239</v>
       </c>
     </row>
   </sheetData>
@@ -21877,145 +21758,145 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>234</v>
+        <v>194</v>
       </c>
       <c r="B1" t="s">
-        <v>235</v>
+        <v>195</v>
       </c>
       <c r="C1" t="s">
-        <v>236</v>
+        <v>196</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>237</v>
+        <v>197</v>
       </c>
       <c r="B2">
         <v>10</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>238</v>
+        <v>198</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>239</v>
+        <v>199</v>
       </c>
       <c r="B3">
         <v>0.18</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>241</v>
+        <v>201</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="B4">
         <v>3.5999999999999997E-2</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>242</v>
+        <v>202</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>243</v>
+        <v>203</v>
       </c>
       <c r="B5">
         <v>0.04</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>244</v>
+        <v>204</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>245</v>
+        <v>205</v>
       </c>
       <c r="B6">
         <v>0.03</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>246</v>
+        <v>206</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
-        <v>251</v>
+        <v>211</v>
       </c>
       <c r="B7">
         <v>0.03</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>252</v>
+        <v>212</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
-        <v>247</v>
+        <v>207</v>
       </c>
       <c r="B8">
         <v>50000</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>248</v>
+        <v>208</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
-        <v>249</v>
+        <v>209</v>
       </c>
       <c r="B9">
         <v>2</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>250</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
-        <v>253</v>
+        <v>213</v>
       </c>
       <c r="B10">
         <v>1.1000000000000001</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>254</v>
+        <v>214</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
-        <v>255</v>
+        <v>215</v>
       </c>
       <c r="B11">
         <v>1.1000000000000001</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>257</v>
+        <v>217</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
-        <v>256</v>
+        <v>216</v>
       </c>
       <c r="B12">
         <v>1.1000000000000001</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>258</v>
+        <v>218</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>262</v>
+        <v>222</v>
       </c>
       <c r="B13">
         <v>2</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>263</v>
+        <v>223</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -22141,7 +22022,7 @@
         <v>18</v>
       </c>
       <c r="T1" s="4" t="s">
-        <v>330</v>
+        <v>290</v>
       </c>
       <c r="U1" s="4" t="s">
         <v>19</v>
@@ -22159,16 +22040,16 @@
         <v>141</v>
       </c>
       <c r="Z1" s="4" t="s">
-        <v>338</v>
+        <v>298</v>
       </c>
       <c r="AA1" s="4" t="s">
-        <v>339</v>
+        <v>299</v>
       </c>
       <c r="AB1" s="11" t="s">
-        <v>259</v>
+        <v>219</v>
       </c>
       <c r="AC1" s="11" t="s">
-        <v>260</v>
+        <v>220</v>
       </c>
       <c r="AD1" s="4" t="s">
         <v>24</v>
@@ -22180,21 +22061,21 @@
         <v>26</v>
       </c>
       <c r="AG1" s="4" t="s">
-        <v>261</v>
+        <v>221</v>
       </c>
       <c r="AH1" s="4" t="s">
         <v>28</v>
       </c>
       <c r="AI1" s="4" t="s">
-        <v>205</v>
+        <v>167</v>
       </c>
       <c r="AJ1" s="4" t="s">
-        <v>211</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>206</v>
+        <v>168</v>
       </c>
       <c r="B2" s="2" t="b">
         <v>0</v>
@@ -22242,16 +22123,16 @@
         <v>0</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="R2" s="4" t="s">
-        <v>207</v>
+        <v>169</v>
       </c>
       <c r="S2" s="4" t="s">
-        <v>208</v>
+        <v>170</v>
       </c>
       <c r="T2" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="U2" s="2" t="b">
         <v>0</v>
@@ -22269,10 +22150,10 @@
         <v>0</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AB2" s="2">
         <v>0</v>
@@ -22304,7 +22185,7 @@
     </row>
     <row r="3" spans="1:36" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>214</v>
+        <v>176</v>
       </c>
       <c r="B3" s="3" t="b">
         <v>0</v>
@@ -22325,7 +22206,7 @@
         <v>20</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>212</v>
+        <v>174</v>
       </c>
       <c r="I3" s="3">
         <v>1</v>
@@ -22352,16 +22233,16 @@
         <v>0</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="R3" s="4" t="s">
-        <v>209</v>
+        <v>171</v>
       </c>
       <c r="S3" s="4" t="s">
-        <v>210</v>
+        <v>172</v>
       </c>
       <c r="T3" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="U3" s="3" t="b">
         <v>0</v>
@@ -22379,10 +22260,10 @@
         <v>0</v>
       </c>
       <c r="Z3" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AB3" s="2">
         <v>0</v>
@@ -22414,7 +22295,7 @@
     </row>
     <row r="4" spans="1:36" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>215</v>
+        <v>177</v>
       </c>
       <c r="B4" s="3" t="b">
         <v>0</v>
@@ -22435,7 +22316,7 @@
         <v>20</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>212</v>
+        <v>174</v>
       </c>
       <c r="I4" s="3">
         <v>5</v>
@@ -22462,16 +22343,16 @@
         <v>0</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>183</v>
+        <v>154</v>
       </c>
       <c r="R4" s="4" t="s">
-        <v>219</v>
+        <v>181</v>
       </c>
       <c r="S4" s="4" t="s">
-        <v>220</v>
+        <v>182</v>
       </c>
       <c r="T4" s="4" t="s">
-        <v>334</v>
+        <v>294</v>
       </c>
       <c r="U4" s="3" t="b">
         <v>0</v>
@@ -22489,10 +22370,10 @@
         <v>0</v>
       </c>
       <c r="Z4" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AA4" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AB4" s="2">
         <v>0</v>
@@ -22524,7 +22405,7 @@
     </row>
     <row r="5" spans="1:36" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>213</v>
+        <v>175</v>
       </c>
       <c r="B5" s="3" t="b">
         <v>0</v>
@@ -22545,7 +22426,7 @@
         <v>20</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>212</v>
+        <v>174</v>
       </c>
       <c r="I5" s="3">
         <v>4</v>
@@ -22572,16 +22453,16 @@
         <v>0</v>
       </c>
       <c r="Q5" s="4" t="s">
-        <v>223</v>
+        <v>183</v>
       </c>
       <c r="R5" s="4" t="s">
-        <v>224</v>
+        <v>184</v>
       </c>
       <c r="S5" s="4" t="s">
-        <v>225</v>
+        <v>185</v>
       </c>
       <c r="T5" s="4" t="s">
-        <v>331</v>
+        <v>291</v>
       </c>
       <c r="U5" s="3" t="b">
         <v>0</v>
@@ -22599,10 +22480,10 @@
         <v>0</v>
       </c>
       <c r="Z5" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AA5" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AB5" s="2">
         <v>0</v>
@@ -22634,7 +22515,7 @@
     </row>
     <row r="6" spans="1:36" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>216</v>
+        <v>178</v>
       </c>
       <c r="B6" s="3" t="b">
         <v>0</v>
@@ -22655,7 +22536,7 @@
         <v>20</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>212</v>
+        <v>174</v>
       </c>
       <c r="I6" s="3">
         <v>1</v>
@@ -22682,16 +22563,16 @@
         <v>0</v>
       </c>
       <c r="Q6" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="R6" s="4" t="s">
-        <v>226</v>
+        <v>186</v>
       </c>
       <c r="S6" s="4" t="s">
-        <v>340</v>
+        <v>300</v>
       </c>
       <c r="T6" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="U6" s="3" t="b">
         <v>0</v>
@@ -22709,10 +22590,10 @@
         <v>0</v>
       </c>
       <c r="Z6" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AA6" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AB6" s="2">
         <v>0</v>
@@ -22744,7 +22625,7 @@
     </row>
     <row r="7" spans="1:36" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>217</v>
+        <v>179</v>
       </c>
       <c r="B7" s="3" t="b">
         <v>0</v>
@@ -22765,7 +22646,7 @@
         <v>20</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>212</v>
+        <v>174</v>
       </c>
       <c r="I7" s="3">
         <v>1</v>
@@ -22792,16 +22673,16 @@
         <v>0</v>
       </c>
       <c r="Q7" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="R7" s="4" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="S7" s="4" t="s">
-        <v>209</v>
+        <v>171</v>
       </c>
       <c r="T7" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="U7" s="3" t="b">
         <v>0</v>
@@ -22819,10 +22700,10 @@
         <v>0</v>
       </c>
       <c r="Z7" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AA7" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AB7" s="2">
         <v>0</v>
@@ -22854,7 +22735,7 @@
     </row>
     <row r="8" spans="1:36" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>218</v>
+        <v>180</v>
       </c>
       <c r="B8" s="3" t="b">
         <v>0</v>
@@ -22875,7 +22756,7 @@
         <v>20</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>212</v>
+        <v>174</v>
       </c>
       <c r="I8" s="3">
         <v>1</v>
@@ -22902,16 +22783,16 @@
         <v>0</v>
       </c>
       <c r="Q8" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="R8" s="4" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="S8" s="4" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="T8" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="U8" s="3" t="b">
         <v>0</v>
@@ -22929,10 +22810,10 @@
         <v>0</v>
       </c>
       <c r="Z8" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AA8" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AB8" s="2">
         <v>0</v>
@@ -22964,7 +22845,7 @@
     </row>
     <row r="9" spans="1:36" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>228</v>
+        <v>188</v>
       </c>
       <c r="B9" s="3" t="b">
         <v>0</v>
@@ -22985,7 +22866,7 @@
         <v>25</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>212</v>
+        <v>174</v>
       </c>
       <c r="I9" s="3">
         <v>6</v>
@@ -23012,16 +22893,16 @@
         <v>0</v>
       </c>
       <c r="Q9" s="4" t="s">
-        <v>229</v>
+        <v>189</v>
       </c>
       <c r="R9" s="4" t="s">
-        <v>233</v>
+        <v>193</v>
       </c>
       <c r="S9" s="4" t="s">
-        <v>230</v>
+        <v>190</v>
       </c>
       <c r="T9" s="4" t="s">
-        <v>336</v>
+        <v>296</v>
       </c>
       <c r="U9" s="3" t="b">
         <v>0</v>
@@ -23039,10 +22920,10 @@
         <v>0</v>
       </c>
       <c r="Z9" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AA9" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AB9" s="2">
         <v>0</v>
@@ -23074,7 +22955,7 @@
     </row>
     <row r="10" spans="1:36" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>231</v>
+        <v>191</v>
       </c>
       <c r="B10" s="3" t="b">
         <v>0</v>
@@ -23095,7 +22976,7 @@
         <v>25</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>212</v>
+        <v>174</v>
       </c>
       <c r="I10" s="3">
         <v>1</v>
@@ -23122,16 +23003,16 @@
         <v>0</v>
       </c>
       <c r="Q10" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="R10" s="4" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="S10" s="4" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="T10" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="U10" s="3" t="b">
         <v>0</v>
@@ -23149,10 +23030,10 @@
         <v>0</v>
       </c>
       <c r="Z10" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AA10" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AB10" s="2">
         <v>0</v>
@@ -23184,7 +23065,7 @@
     </row>
     <row r="11" spans="1:36" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>232</v>
+        <v>192</v>
       </c>
       <c r="B11" s="3" t="b">
         <v>0</v>
@@ -23205,7 +23086,7 @@
         <v>25</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>212</v>
+        <v>174</v>
       </c>
       <c r="I11" s="3">
         <v>0</v>
@@ -23232,16 +23113,16 @@
         <v>0</v>
       </c>
       <c r="Q11" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="R11" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="S11" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="T11" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="U11" s="3" t="b">
         <v>0</v>
@@ -23259,10 +23140,10 @@
         <v>0</v>
       </c>
       <c r="Z11" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AA11" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AB11" s="2">
         <v>0</v>
@@ -23505,42 +23386,42 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>287</v>
+        <v>247</v>
       </c>
       <c r="C1" t="s">
-        <v>264</v>
+        <v>224</v>
       </c>
       <c r="D1" t="s">
-        <v>265</v>
+        <v>225</v>
       </c>
       <c r="E1" t="s">
-        <v>266</v>
+        <v>226</v>
       </c>
       <c r="F1" t="s">
-        <v>267</v>
+        <v>227</v>
       </c>
       <c r="G1" t="s">
         <v>2</v>
       </c>
       <c r="H1" t="s">
-        <v>268</v>
+        <v>228</v>
       </c>
       <c r="I1" t="s">
-        <v>269</v>
+        <v>229</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>290</v>
+        <v>250</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>271</v>
+        <v>231</v>
       </c>
       <c r="D2" t="s">
-        <v>288</v>
+        <v>248</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -23549,24 +23430,24 @@
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>289</v>
+        <v>249</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>283</v>
+        <v>243</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>301</v>
+        <v>261</v>
       </c>
       <c r="B3">
         <v>92</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>271</v>
+        <v>231</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>34</v>
@@ -23578,27 +23459,27 @@
         <v>2577</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>302</v>
+        <v>262</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>283</v>
+        <v>243</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>305</v>
+        <v>265</v>
       </c>
       <c r="B4">
         <v>95</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>271</v>
+        <v>231</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>288</v>
+        <v>248</v>
       </c>
       <c r="E4">
         <v>912</v>
@@ -23607,13 +23488,13 @@
         <v>2765</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>272</v>
+        <v>232</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>306</v>
+        <v>266</v>
       </c>
     </row>
   </sheetData>
@@ -23648,42 +23529,42 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>287</v>
+        <v>247</v>
       </c>
       <c r="C1" t="s">
-        <v>264</v>
+        <v>224</v>
       </c>
       <c r="D1" t="s">
-        <v>265</v>
+        <v>225</v>
       </c>
       <c r="E1" t="s">
-        <v>266</v>
+        <v>226</v>
       </c>
       <c r="F1" t="s">
-        <v>267</v>
+        <v>227</v>
       </c>
       <c r="G1" t="s">
         <v>2</v>
       </c>
       <c r="H1" t="s">
-        <v>268</v>
+        <v>228</v>
       </c>
       <c r="I1" t="s">
-        <v>269</v>
+        <v>229</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>271</v>
+        <v>231</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>307</v>
+        <v>267</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -23692,27 +23573,27 @@
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>289</v>
+        <v>249</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>283</v>
+        <v>243</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="B3">
         <v>95</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>271</v>
+        <v>231</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>307</v>
+        <v>267</v>
       </c>
       <c r="E3">
         <v>456</v>
@@ -23721,13 +23602,13 @@
         <v>2765</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>302</v>
+        <v>262</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>306</v>
+        <v>266</v>
       </c>
     </row>
   </sheetData>
@@ -23757,21 +23638,21 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>264</v>
+        <v>224</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>287</v>
+        <v>247</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>266</v>
+        <v>226</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>316</v>
+        <v>276</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>294</v>
+        <v>254</v>
       </c>
       <c r="C2" s="8">
         <v>0</v>
@@ -23782,10 +23663,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>310</v>
+        <v>270</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>268</v>
+        <v>228</v>
       </c>
       <c r="C3" s="8">
         <v>95</v>
@@ -23824,24 +23705,24 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>264</v>
+        <v>224</v>
       </c>
       <c r="C1" t="s">
-        <v>284</v>
+        <v>244</v>
       </c>
       <c r="D1" t="s">
-        <v>285</v>
+        <v>245</v>
       </c>
       <c r="E1" t="s">
-        <v>286</v>
+        <v>246</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>291</v>
+        <v>251</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>294</v>
+        <v>254</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -23855,10 +23736,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>280</v>
+        <v>240</v>
       </c>
       <c r="B3" t="s">
-        <v>271</v>
+        <v>231</v>
       </c>
       <c r="C3">
         <v>30.4</v>
@@ -23872,10 +23753,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>281</v>
+        <v>241</v>
       </c>
       <c r="B4" t="s">
-        <v>268</v>
+        <v>228</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -23889,7 +23770,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>282</v>
+        <v>242</v>
       </c>
       <c r="B5" t="s">
         <v>75</v>
@@ -23906,10 +23787,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>293</v>
+        <v>253</v>
       </c>
       <c r="B6" t="s">
-        <v>294</v>
+        <v>254</v>
       </c>
       <c r="C6">
         <v>27.7</v>
@@ -23923,10 +23804,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>292</v>
+        <v>252</v>
       </c>
       <c r="B7" t="s">
-        <v>294</v>
+        <v>254</v>
       </c>
       <c r="C7">
         <v>12</v>
@@ -23968,24 +23849,24 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>264</v>
+        <v>224</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>284</v>
+        <v>244</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>285</v>
+        <v>245</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>286</v>
+        <v>246</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="B2" t="s">
-        <v>294</v>
+        <v>254</v>
       </c>
       <c r="C2" s="13">
         <v>0</v>
@@ -23999,10 +23880,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>295</v>
+        <v>255</v>
       </c>
       <c r="B3" t="s">
-        <v>271</v>
+        <v>231</v>
       </c>
       <c r="C3">
         <v>21.6</v>
@@ -24016,7 +23897,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>296</v>
+        <v>256</v>
       </c>
       <c r="B4" t="s">
         <v>75</v>
@@ -24033,10 +23914,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>297</v>
+        <v>257</v>
       </c>
       <c r="B5" t="s">
-        <v>271</v>
+        <v>231</v>
       </c>
       <c r="C5">
         <v>43</v>
@@ -24050,10 +23931,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>299</v>
+        <v>259</v>
       </c>
       <c r="B6" t="s">
-        <v>268</v>
+        <v>228</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -24067,10 +23948,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>298</v>
+        <v>258</v>
       </c>
       <c r="B7" t="s">
-        <v>294</v>
+        <v>254</v>
       </c>
       <c r="C7">
         <v>43</v>
@@ -24113,24 +23994,24 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>264</v>
+        <v>224</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>284</v>
+        <v>244</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>285</v>
+        <v>245</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>286</v>
+        <v>246</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>317</v>
+        <v>277</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>294</v>
+        <v>254</v>
       </c>
       <c r="C2" s="8">
         <v>0</v>
@@ -24144,10 +24025,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>308</v>
+        <v>268</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>294</v>
+        <v>254</v>
       </c>
       <c r="C3">
         <v>7</v>
@@ -24161,10 +24042,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>214</v>
+        <v>176</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>294</v>
+        <v>254</v>
       </c>
       <c r="C4">
         <v>5</v>
@@ -24178,10 +24059,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>215</v>
+        <v>177</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>294</v>
+        <v>254</v>
       </c>
       <c r="C5">
         <v>5</v>
@@ -24195,10 +24076,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>213</v>
+        <v>175</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>294</v>
+        <v>254</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -24212,10 +24093,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>216</v>
+        <v>178</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>294</v>
+        <v>254</v>
       </c>
       <c r="C7">
         <v>5</v>
@@ -24229,10 +24110,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>217</v>
+        <v>179</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>294</v>
+        <v>254</v>
       </c>
       <c r="C8">
         <v>5</v>
@@ -24246,10 +24127,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>218</v>
+        <v>180</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>294</v>
+        <v>254</v>
       </c>
       <c r="C9">
         <v>5</v>
@@ -24263,10 +24144,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>228</v>
+        <v>188</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>294</v>
+        <v>254</v>
       </c>
       <c r="C10">
         <v>8</v>
@@ -24280,10 +24161,10 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>231</v>
+        <v>191</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>294</v>
+        <v>254</v>
       </c>
       <c r="C11">
         <v>8</v>
@@ -24297,10 +24178,10 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>232</v>
+        <v>192</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>294</v>
+        <v>254</v>
       </c>
       <c r="C12">
         <v>8</v>
@@ -24344,27 +24225,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>264</v>
+        <v>224</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>287</v>
+        <v>247</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>284</v>
+        <v>244</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>285</v>
+        <v>245</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>286</v>
+        <v>246</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>315</v>
+        <v>275</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>294</v>
+        <v>254</v>
       </c>
       <c r="C2" s="8">
         <v>0</v>
@@ -24381,10 +24262,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>309</v>
+        <v>269</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>271</v>
+        <v>231</v>
       </c>
       <c r="C3">
         <v>85</v>
@@ -24401,10 +24282,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>337</v>
+        <v>297</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>271</v>
+        <v>231</v>
       </c>
       <c r="C4">
         <v>90</v>
